--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_17_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603667.4224987989</v>
+        <v>606096.9333510534</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11951199.20392087</v>
+        <v>11951199.20392086</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15423466.34111336</v>
+        <v>15423466.34111337</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6123245.817037308</v>
+        <v>6123245.817037309</v>
       </c>
     </row>
     <row r="11">
@@ -1370,70 +1370,70 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>82.37049801743501</v>
       </c>
-      <c r="D11" t="n">
+      <c r="V11" t="n">
         <v>93.51782245394539</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="W11" t="n">
         <v>93.51782245394539</v>
       </c>
-      <c r="I11" t="n">
+      <c r="X11" t="n">
         <v>93.51782245394539</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,67 +1449,67 @@
         <v>93.51782245394539</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>93.51782245394539</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
+      <c r="V12" t="n">
         <v>93.51782245394539</v>
       </c>
-      <c r="I12" t="n">
-        <v>55.44881153525657</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>26.9216864821785</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>82.37049801743503</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>47.45403247908754</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>34.9164655383475</v>
@@ -1570,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>16.94308427253094</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>93.51782245394539</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>93.51782245394539</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>93.51782245394539</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>30.51094820655664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="I14" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="V14" t="n">
-        <v>82.37049801743501</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="W14" t="n">
-        <v>93.51782245394539</v>
+        <v>82.37049801743498</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>26.9216864821785</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="H15" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>55.44881153525657</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>82.37049801743501</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.45403247908751</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>34.9164655383475</v>
@@ -1807,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>16.94308427253094</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>30.51094820655655</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1853,16 +1853,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>99.40751340895559</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>99.40751340895559</v>
       </c>
       <c r="H17" t="n">
         <v>99.40751340895559</v>
       </c>
       <c r="I17" t="n">
-        <v>99.40751340895559</v>
+        <v>53.44862403531749</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>34.10951377529054</v>
       </c>
       <c r="S17" t="n">
-        <v>87.55813781060809</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>99.40751340895559</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1926,70 +1926,70 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>87.55813781060803</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.57752254459899</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
         <v>99.40751340895559</v>
       </c>
-      <c r="H18" t="n">
+      <c r="W18" t="n">
         <v>99.40751340895559</v>
       </c>
-      <c r="I18" t="n">
-        <v>55.44881153525657</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>38.93931713970809</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>99.40751340895559</v>
       </c>
     </row>
     <row r="19">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>99.40751340895559</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>99.40751340895559</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>87.55813781060803</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,49 +2017,49 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>99.40751340895559</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>87.55813781060809</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>99.40751340895559</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.40751340895559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,67 +2087,67 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>99.40751340895584</v>
       </c>
       <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>87.55813781060826</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="Y20" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,70 +2163,70 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>87.55813781060826</v>
+      </c>
+      <c r="T21" t="n">
         <v>99.40751340895584</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>48.61882067090016</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>38.9393171397081</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="W21" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2239,19 +2239,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>99.40751340895584</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2327,58 +2327,58 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="G23" t="n">
         <v>118.567493477517</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>104.434248254997</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
       <c r="U23" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,13 +2397,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>118.567493477517</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>104.434248254997</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2448,13 +2448,13 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>104.434248254997</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="W24" t="n">
         <v>118.567493477517</v>
@@ -2491,58 +2491,58 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>69.51778271664949</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>104.434248254997</v>
+      </c>
+      <c r="W25" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="J25" t="n">
-        <v>34.91646553834751</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="X25" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="Y25" t="n">
         <v>118.567493477517</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2555,73 +2555,73 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>118.567493477517</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>118.567493477517</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>104.434248254997</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
+      <c r="Y26" t="n">
         <v>118.567493477517</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>118.567493477517</v>
-      </c>
-      <c r="X26" t="n">
-        <v>118.567493477517</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>104.434248254997</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,13 +2679,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>38.9393171397081</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>65.49493111528889</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>118.567493477517</v>
@@ -2697,7 +2697,7 @@
         <v>118.567493477517</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2716,70 +2716,70 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>104.434248254997</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>52.57469844411852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="H28" t="n">
+      <c r="X28" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="I28" t="n">
+      <c r="Y28" t="n">
         <v>118.567493477517</v>
-      </c>
-      <c r="J28" t="n">
-        <v>34.91646553834751</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>16.94308427253094</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,19 +2789,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>104.434248254997</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2846,10 +2846,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>104.434248254997</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2874,67 +2874,67 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>104.434248254997</v>
+      </c>
+      <c r="V30" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>102.7127560150721</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.721492239924876</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
+      <c r="W30" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="U30" t="n">
+      <c r="X30" t="n">
         <v>118.567493477517</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,73 +2950,73 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="D31" t="n">
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>104.434248254997</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>16.94308427253094</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>87.49116398246605</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="Y31" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>70.32473447970646</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>34.10951377529055</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
+        <v>104.434248254997</v>
+      </c>
+      <c r="V32" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="T32" t="n">
+      <c r="W32" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0</v>
-      </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="Y32" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3108,73 +3108,73 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="D33" t="n">
-        <v>0</v>
-      </c>
-      <c r="E33" t="n">
+      <c r="V33" t="n">
+        <v>118.567493477517</v>
+      </c>
+      <c r="W33" t="n">
+        <v>118.567493477517</v>
+      </c>
+      <c r="X33" t="n">
         <v>104.434248254997</v>
       </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="n">
-        <v>118.567493477517</v>
-      </c>
       <c r="Y33" t="n">
-        <v>118.567493477517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3199,52 +3199,52 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>69.51778271664946</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>104.434248254997</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>118.567493477517</v>
       </c>
-      <c r="I34" t="n">
+      <c r="V34" t="n">
         <v>118.567493477517</v>
-      </c>
-      <c r="J34" t="n">
-        <v>34.91646553834751</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>118.567493477517</v>
@@ -3272,16 +3272,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>87.55813781060797</v>
       </c>
       <c r="F35" t="n">
         <v>99.40751340895554</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>87.55813781060797</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3329,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>87.55813781060803</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.9393171397081</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="V36" t="n">
         <v>99.40751340895554</v>
@@ -3408,7 +3408,7 @@
         <v>99.40751340895554</v>
       </c>
       <c r="X36" t="n">
-        <v>99.40751340895554</v>
+        <v>48.61882067089994</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
         <v>99.40751340895554</v>
       </c>
-      <c r="D37" t="n">
-        <v>99.40751340895554</v>
-      </c>
-      <c r="E37" t="n">
-        <v>99.40751340895554</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>35.69858799972954</v>
+        <v>52.64167227226054</v>
       </c>
       <c r="J37" t="n">
         <v>34.91646553834751</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.94308427253094</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
     </row>
     <row r="38">
@@ -3503,73 +3503,73 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>53.44862403531749</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>34.10951377529055</v>
+      </c>
+      <c r="S38" t="n">
         <v>99.40751340895554</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>99.40751340895554</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>87.55813781060797</v>
-      </c>
-      <c r="U38" t="n">
+      <c r="Y38" t="n">
         <v>99.40751340895554</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,10 +3579,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>87.55813781060803</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.55813781060797</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="T39" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>52.64167227226054</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,46 +3673,46 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>16.94308427253094</v>
+      </c>
+      <c r="R40" t="n">
         <v>99.40751340895554</v>
       </c>
-      <c r="J40" t="n">
-        <v>34.91646553834751</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>70.61505353807704</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,10 +3724,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.40751340895554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>82.37049801743498</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="E41" t="n">
         <v>93.5178224539453</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>48.26098424214443</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,19 +3785,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>34.10951377529055</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
         <v>82.37049801743501</v>
       </c>
-      <c r="T42" t="n">
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
         <v>93.5178224539453</v>
-      </c>
-      <c r="U42" t="n">
-        <v>93.5178224539453</v>
-      </c>
-      <c r="V42" t="n">
-        <v>93.5178224539453</v>
-      </c>
-      <c r="W42" t="n">
-        <v>0</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3898,73 +3898,73 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>16.94308427253094</v>
+      </c>
+      <c r="R43" t="n">
         <v>93.5178224539453</v>
       </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>82.37049801743498</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>65.42741374490404</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,76 +3974,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>48.26098424214443</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>34.10951377529055</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
         <v>93.5178224539453</v>
       </c>
-      <c r="D44" t="n">
+      <c r="V44" t="n">
         <v>93.5178224539453</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
-        <v>82.37049801743501</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4053,10 +4053,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>82.37049801743498</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>93.5178224539453</v>
+        <v>82.37049801743501</v>
       </c>
       <c r="V45" t="n">
         <v>93.5178224539453</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>65.42741374490404</v>
       </c>
       <c r="F46" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
         <v>93.5178224539453</v>
       </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
       <c r="W46" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.42741374490404</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>374.0712898157815</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="C11" t="n">
-        <v>290.8687665658472</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="D11" t="n">
-        <v>196.40631964267</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="E11" t="n">
-        <v>196.40631964267</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="F11" t="n">
-        <v>196.40631964267</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="G11" t="n">
-        <v>196.40631964267</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9438727194928</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="I11" t="n">
         <v>7.481425796315631</v>
@@ -5042,13 +5042,13 @@
         <v>7.481425796315631</v>
       </c>
       <c r="K11" t="n">
-        <v>21.66307905135011</v>
+        <v>21.66307905135022</v>
       </c>
       <c r="L11" t="n">
-        <v>76.15843579972193</v>
+        <v>76.15843579972184</v>
       </c>
       <c r="M11" t="n">
-        <v>168.4644577575033</v>
+        <v>168.4644577575032</v>
       </c>
       <c r="N11" t="n">
         <v>261.0471019869092</v>
@@ -5072,19 +5072,19 @@
         <v>374.0712898157815</v>
       </c>
       <c r="U11" t="n">
-        <v>374.0712898157815</v>
+        <v>290.8687665658472</v>
       </c>
       <c r="V11" t="n">
-        <v>374.0712898157815</v>
+        <v>196.40631964267</v>
       </c>
       <c r="W11" t="n">
-        <v>374.0712898157815</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="X11" t="n">
-        <v>374.0712898157815</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="Y11" t="n">
-        <v>374.0712898157815</v>
+        <v>7.481425796315631</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>252.4152201833332</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="C12" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="D12" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="E12" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="F12" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="G12" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="H12" t="n">
-        <v>63.49032633697884</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="I12" t="n">
         <v>7.481425796315631</v>
@@ -5121,16 +5121,16 @@
         <v>7.481425796315631</v>
       </c>
       <c r="K12" t="n">
-        <v>28.64367102355217</v>
+        <v>7.481425796315631</v>
       </c>
       <c r="L12" t="n">
-        <v>103.4214624699943</v>
+        <v>82.25921724275776</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0041066994002</v>
+        <v>136.6449501206321</v>
       </c>
       <c r="N12" t="n">
-        <v>288.5867509288062</v>
+        <v>229.227594350038</v>
       </c>
       <c r="O12" t="n">
         <v>320.3059478033213</v>
@@ -5145,25 +5145,25 @@
         <v>374.0712898157815</v>
       </c>
       <c r="S12" t="n">
-        <v>346.8776671065103</v>
+        <v>374.0712898157815</v>
       </c>
       <c r="T12" t="n">
-        <v>346.8776671065103</v>
+        <v>374.0712898157815</v>
       </c>
       <c r="U12" t="n">
-        <v>346.8776671065103</v>
+        <v>279.6088428926043</v>
       </c>
       <c r="V12" t="n">
-        <v>346.8776671065103</v>
+        <v>185.1463959694272</v>
       </c>
       <c r="W12" t="n">
-        <v>346.8776671065103</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="X12" t="n">
-        <v>346.8776671065103</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="Y12" t="n">
-        <v>346.8776671065103</v>
+        <v>101.9438727194928</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="C13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="D13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="E13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="F13" t="n">
-        <v>326.1379236752891</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="G13" t="n">
-        <v>231.6754767521119</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="H13" t="n">
-        <v>137.2130298289347</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="I13" t="n">
         <v>42.75058290575755</v>
@@ -5203,46 +5203,46 @@
         <v>80.51356850395287</v>
       </c>
       <c r="L13" t="n">
+        <v>80.51356850395287</v>
+      </c>
+      <c r="M13" t="n">
         <v>173.0962127333588</v>
       </c>
-      <c r="M13" t="n">
-        <v>265.6788569627647</v>
-      </c>
       <c r="N13" t="n">
-        <v>265.6788569627647</v>
+        <v>188.9060013569697</v>
       </c>
       <c r="O13" t="n">
-        <v>358.2615011921706</v>
+        <v>281.4886455863756</v>
       </c>
       <c r="P13" t="n">
         <v>374.0712898157815</v>
       </c>
       <c r="Q13" t="n">
-        <v>374.0712898157815</v>
+        <v>356.9570632778715</v>
       </c>
       <c r="R13" t="n">
-        <v>374.0712898157815</v>
+        <v>262.4946163546944</v>
       </c>
       <c r="S13" t="n">
-        <v>374.0712898157815</v>
+        <v>168.0321694315172</v>
       </c>
       <c r="T13" t="n">
-        <v>374.0712898157815</v>
+        <v>73.56972250834002</v>
       </c>
       <c r="U13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="V13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="W13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="X13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="Y13" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="C14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="D14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="E14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="F14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="G14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="H14" t="n">
+        <v>7.481425796315627</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.481425796315627</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7.481425796315627</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21.66307905135008</v>
+      </c>
+      <c r="L14" t="n">
+        <v>76.15843579972174</v>
+      </c>
+      <c r="M14" t="n">
+        <v>168.4644577575031</v>
+      </c>
+      <c r="N14" t="n">
+        <v>261.047101986909</v>
+      </c>
+      <c r="O14" t="n">
+        <v>340.6408598258605</v>
+      </c>
+      <c r="P14" t="n">
+        <v>374.0712898157813</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>374.0712898157814</v>
+      </c>
+      <c r="R14" t="n">
+        <v>374.0712898157814</v>
+      </c>
+      <c r="S14" t="n">
+        <v>374.0712898157814</v>
+      </c>
+      <c r="T14" t="n">
+        <v>374.0712898157814</v>
+      </c>
+      <c r="U14" t="n">
+        <v>279.6088428926042</v>
+      </c>
+      <c r="V14" t="n">
+        <v>185.1463959694271</v>
+      </c>
+      <c r="W14" t="n">
         <v>101.9438727194928</v>
       </c>
-      <c r="I14" t="n">
-        <v>7.481425796315631</v>
-      </c>
-      <c r="J14" t="n">
-        <v>7.481425796315914</v>
-      </c>
-      <c r="K14" t="n">
-        <v>21.66307905135037</v>
-      </c>
-      <c r="L14" t="n">
-        <v>76.15843579972203</v>
-      </c>
-      <c r="M14" t="n">
-        <v>168.4644577575034</v>
-      </c>
-      <c r="N14" t="n">
-        <v>261.0471019869093</v>
-      </c>
-      <c r="O14" t="n">
-        <v>340.6408598258608</v>
-      </c>
-      <c r="P14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="R14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="S14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="T14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="U14" t="n">
-        <v>374.0712898157815</v>
-      </c>
-      <c r="V14" t="n">
-        <v>290.8687665658472</v>
-      </c>
-      <c r="W14" t="n">
-        <v>196.40631964267</v>
-      </c>
       <c r="X14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="Y14" t="n">
-        <v>196.40631964267</v>
+        <v>101.9438727194928</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>374.0712898157815</v>
+        <v>196.4063196426699</v>
       </c>
       <c r="C15" t="n">
-        <v>374.0712898157815</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="D15" t="n">
-        <v>374.0712898157815</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="E15" t="n">
-        <v>346.8776671065103</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="F15" t="n">
-        <v>252.4152201833332</v>
+        <v>101.9438727194928</v>
       </c>
       <c r="G15" t="n">
-        <v>157.952773260156</v>
+        <v>7.481425796315627</v>
       </c>
       <c r="H15" t="n">
-        <v>63.49032633697884</v>
+        <v>7.481425796315627</v>
       </c>
       <c r="I15" t="n">
-        <v>7.481425796315631</v>
+        <v>7.481425796315627</v>
       </c>
       <c r="J15" t="n">
-        <v>7.481425796315631</v>
+        <v>7.481425796315627</v>
       </c>
       <c r="K15" t="n">
-        <v>28.64367102355217</v>
+        <v>28.64367102355216</v>
       </c>
       <c r="L15" t="n">
-        <v>44.06230589122615</v>
+        <v>44.06230589122607</v>
       </c>
       <c r="M15" t="n">
-        <v>136.6449501206321</v>
+        <v>136.644950120632</v>
       </c>
       <c r="N15" t="n">
-        <v>229.227594350038</v>
+        <v>229.2275943500378</v>
       </c>
       <c r="O15" t="n">
-        <v>320.3059478033213</v>
+        <v>320.3059478033211</v>
       </c>
       <c r="P15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="Q15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="R15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="S15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="T15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="U15" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="V15" t="n">
-        <v>374.0712898157815</v>
+        <v>290.868766565847</v>
       </c>
       <c r="W15" t="n">
-        <v>374.0712898157815</v>
+        <v>196.4063196426699</v>
       </c>
       <c r="X15" t="n">
-        <v>374.0712898157815</v>
+        <v>196.4063196426699</v>
       </c>
       <c r="Y15" t="n">
-        <v>374.0712898157815</v>
+        <v>196.4063196426699</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="C16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="D16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="E16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="F16" t="n">
-        <v>279.6088428926043</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="G16" t="n">
-        <v>231.6754767521119</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="H16" t="n">
-        <v>137.2130298289347</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="I16" t="n">
         <v>42.75058290575755</v>
       </c>
       <c r="J16" t="n">
-        <v>7.481425796315631</v>
+        <v>7.481425796315627</v>
       </c>
       <c r="K16" t="n">
         <v>80.51356850395287</v>
       </c>
       <c r="L16" t="n">
+        <v>80.51356850395287</v>
+      </c>
+      <c r="M16" t="n">
         <v>173.0962127333588</v>
       </c>
-      <c r="M16" t="n">
-        <v>265.6788569627647</v>
-      </c>
       <c r="N16" t="n">
-        <v>281.4886455863756</v>
+        <v>188.9060013569696</v>
       </c>
       <c r="O16" t="n">
-        <v>281.4886455863756</v>
+        <v>281.4886455863755</v>
       </c>
       <c r="P16" t="n">
-        <v>374.0712898157815</v>
+        <v>374.0712898157814</v>
       </c>
       <c r="Q16" t="n">
-        <v>374.0712898157815</v>
+        <v>356.9570632778713</v>
       </c>
       <c r="R16" t="n">
-        <v>374.0712898157815</v>
+        <v>262.4946163546942</v>
       </c>
       <c r="S16" t="n">
-        <v>374.0712898157815</v>
+        <v>168.032169431517</v>
       </c>
       <c r="T16" t="n">
-        <v>374.0712898157815</v>
+        <v>73.56972250833992</v>
       </c>
       <c r="U16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="V16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="W16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="X16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
       <c r="Y16" t="n">
-        <v>374.0712898157815</v>
+        <v>42.75058290575755</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="C17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="D17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="E17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="F17" t="n">
-        <v>208.775860484748</v>
+        <v>262.7643696113313</v>
       </c>
       <c r="G17" t="n">
-        <v>208.775860484748</v>
+        <v>162.3527399053155</v>
       </c>
       <c r="H17" t="n">
-        <v>108.3642307787322</v>
+        <v>61.94111019929977</v>
       </c>
       <c r="I17" t="n">
         <v>7.952601072716448</v>
@@ -5537,28 +5537,28 @@
         <v>397.6300536358224</v>
       </c>
       <c r="R17" t="n">
-        <v>397.6300536358224</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="S17" t="n">
-        <v>309.1874901907637</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="T17" t="n">
-        <v>309.1874901907637</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="U17" t="n">
-        <v>309.1874901907637</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="V17" t="n">
-        <v>309.1874901907637</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="W17" t="n">
-        <v>309.1874901907637</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="X17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
       <c r="Y17" t="n">
-        <v>208.775860484748</v>
+        <v>363.1759993173471</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>358.2974100603597</v>
+        <v>96.39516451777507</v>
       </c>
       <c r="C18" t="n">
-        <v>358.2974100603597</v>
+        <v>96.39516451777507</v>
       </c>
       <c r="D18" t="n">
-        <v>358.2974100603597</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="E18" t="n">
-        <v>358.2974100603597</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="F18" t="n">
-        <v>264.7847610254112</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="G18" t="n">
-        <v>164.3731313193954</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="H18" t="n">
-        <v>63.96150161337965</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="I18" t="n">
         <v>7.952601072716448</v>
@@ -5595,10 +5595,10 @@
         <v>7.952601072716448</v>
       </c>
       <c r="K18" t="n">
-        <v>7.952601072716448</v>
+        <v>29.11484629995298</v>
       </c>
       <c r="L18" t="n">
-        <v>55.95948162034678</v>
+        <v>103.8926377463951</v>
       </c>
       <c r="M18" t="n">
         <v>154.3729198952128</v>
@@ -5616,28 +5616,28 @@
         <v>397.6300536358224</v>
       </c>
       <c r="R18" t="n">
-        <v>358.2974100603597</v>
+        <v>397.6300536358224</v>
       </c>
       <c r="S18" t="n">
-        <v>358.2974100603597</v>
+        <v>397.6300536358224</v>
       </c>
       <c r="T18" t="n">
-        <v>358.2974100603597</v>
+        <v>397.6300536358224</v>
       </c>
       <c r="U18" t="n">
-        <v>358.2974100603597</v>
+        <v>397.6300536358224</v>
       </c>
       <c r="V18" t="n">
-        <v>358.2974100603597</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="W18" t="n">
-        <v>358.2974100603597</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="X18" t="n">
-        <v>358.2974100603597</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="Y18" t="n">
-        <v>358.2974100603597</v>
+        <v>96.39516451777507</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>108.3642307787322</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="C19" t="n">
-        <v>108.3642307787322</v>
+        <v>96.39516451777507</v>
       </c>
       <c r="D19" t="n">
-        <v>108.3642307787322</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="E19" t="n">
-        <v>108.3642307787322</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="F19" t="n">
-        <v>108.3642307787322</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="G19" t="n">
-        <v>108.3642307787322</v>
+        <v>7.952601072716448</v>
       </c>
       <c r="H19" t="n">
         <v>7.952601072716448</v>
@@ -5680,7 +5680,7 @@
         <v>106.3660393475825</v>
       </c>
       <c r="M19" t="n">
-        <v>200.8031770860903</v>
+        <v>204.7794776224485</v>
       </c>
       <c r="N19" t="n">
         <v>299.2166153609563</v>
@@ -5701,22 +5701,22 @@
         <v>397.6300536358224</v>
       </c>
       <c r="T19" t="n">
-        <v>397.6300536358224</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="U19" t="n">
-        <v>309.1874901907637</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="V19" t="n">
-        <v>208.775860484748</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="W19" t="n">
-        <v>208.775860484748</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="X19" t="n">
-        <v>208.775860484748</v>
+        <v>297.2184239298066</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.3642307787322</v>
+        <v>297.2184239298066</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.2184239298073</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="C20" t="n">
-        <v>297.2184239298073</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="D20" t="n">
-        <v>297.2184239298073</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="E20" t="n">
-        <v>196.8067942237913</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="F20" t="n">
-        <v>96.39516451777531</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="G20" t="n">
         <v>7.952601072716467</v>
@@ -5756,16 +5756,16 @@
         <v>22.1342543277509</v>
       </c>
       <c r="L20" t="n">
-        <v>93.88640557430382</v>
+        <v>76.6296110761225</v>
       </c>
       <c r="M20" t="n">
-        <v>186.1924275320851</v>
+        <v>168.9356330339038</v>
       </c>
       <c r="N20" t="n">
-        <v>284.6058658069511</v>
+        <v>267.3490713087698</v>
       </c>
       <c r="O20" t="n">
-        <v>364.1996236459026</v>
+        <v>346.9428291477213</v>
       </c>
       <c r="P20" t="n">
         <v>397.6300536358233</v>
@@ -5786,16 +5786,16 @@
         <v>397.6300536358233</v>
       </c>
       <c r="V20" t="n">
-        <v>397.6300536358233</v>
+        <v>309.1874901907645</v>
       </c>
       <c r="W20" t="n">
-        <v>397.6300536358233</v>
+        <v>208.7758604847485</v>
       </c>
       <c r="X20" t="n">
-        <v>397.6300536358233</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.2184239298073</v>
+        <v>108.3642307787325</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.4741506483286</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="C21" t="n">
-        <v>157.4741506483286</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="D21" t="n">
-        <v>57.06252094231259</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="E21" t="n">
-        <v>57.06252094231259</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="F21" t="n">
-        <v>57.06252094231259</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="G21" t="n">
-        <v>57.06252094231259</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="H21" t="n">
-        <v>57.06252094231259</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="I21" t="n">
         <v>7.952601072716467</v>
@@ -5835,16 +5835,16 @@
         <v>29.114846299953</v>
       </c>
       <c r="L21" t="n">
-        <v>55.95948162034728</v>
+        <v>103.8926377463951</v>
       </c>
       <c r="M21" t="n">
-        <v>154.3729198952136</v>
+        <v>202.3060760212614</v>
       </c>
       <c r="N21" t="n">
-        <v>252.7863581700798</v>
+        <v>300.7195142961277</v>
       </c>
       <c r="O21" t="n">
-        <v>343.8647116233631</v>
+        <v>391.797867749411</v>
       </c>
       <c r="P21" t="n">
         <v>397.6300536358233</v>
@@ -5853,28 +5853,28 @@
         <v>397.6300536358233</v>
       </c>
       <c r="R21" t="n">
-        <v>358.2974100603606</v>
+        <v>397.6300536358233</v>
       </c>
       <c r="S21" t="n">
-        <v>358.2974100603606</v>
+        <v>309.1874901907645</v>
       </c>
       <c r="T21" t="n">
-        <v>358.2974100603606</v>
+        <v>208.7758604847485</v>
       </c>
       <c r="U21" t="n">
-        <v>358.2974100603606</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="V21" t="n">
-        <v>358.2974100603606</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="W21" t="n">
-        <v>257.8857803543446</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="X21" t="n">
-        <v>257.8857803543446</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.4741506483286</v>
+        <v>7.952601072716467</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>309.1874901907645</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="C22" t="n">
-        <v>309.1874901907645</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="D22" t="n">
-        <v>309.1874901907645</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="E22" t="n">
-        <v>208.7758604847485</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="F22" t="n">
-        <v>108.3642307787325</v>
+        <v>7.952601072716467</v>
       </c>
       <c r="G22" t="n">
         <v>7.952601072716467</v>
@@ -5914,13 +5914,13 @@
         <v>7.952601072716467</v>
       </c>
       <c r="L22" t="n">
-        <v>106.3660393475827</v>
+        <v>102.3897388112245</v>
       </c>
       <c r="M22" t="n">
-        <v>204.779477622449</v>
+        <v>200.8031770860908</v>
       </c>
       <c r="N22" t="n">
-        <v>303.1929158973153</v>
+        <v>299.2166153609571</v>
       </c>
       <c r="O22" t="n">
         <v>397.6300536358233</v>
@@ -5941,19 +5941,19 @@
         <v>309.1874901907645</v>
       </c>
       <c r="U22" t="n">
-        <v>309.1874901907645</v>
+        <v>208.7758604847485</v>
       </c>
       <c r="V22" t="n">
-        <v>309.1874901907645</v>
+        <v>208.7758604847485</v>
       </c>
       <c r="W22" t="n">
-        <v>309.1874901907645</v>
+        <v>208.7758604847485</v>
       </c>
       <c r="X22" t="n">
-        <v>309.1874901907645</v>
+        <v>108.3642307787325</v>
       </c>
       <c r="Y22" t="n">
-        <v>309.1874901907645</v>
+        <v>108.3642307787325</v>
       </c>
     </row>
     <row r="23">
@@ -5963,46 +5963,46 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="C23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="D23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="E23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="F23" t="n">
-        <v>234.7396840564984</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="G23" t="n">
-        <v>114.9745391297135</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="H23" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="I23" t="n">
         <v>9.485399478201362</v>
       </c>
       <c r="J23" t="n">
-        <v>17.89792729232139</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="K23" t="n">
-        <v>32.07958054735582</v>
+        <v>23.66705273323579</v>
       </c>
       <c r="L23" t="n">
-        <v>86.57493729572742</v>
+        <v>78.1624094816074</v>
       </c>
       <c r="M23" t="n">
-        <v>178.8809592535087</v>
+        <v>195.5442280243493</v>
       </c>
       <c r="N23" t="n">
-        <v>277.2943975283747</v>
+        <v>293.9576662992152</v>
       </c>
       <c r="O23" t="n">
-        <v>356.8881553673262</v>
+        <v>411.3394848419571</v>
       </c>
       <c r="P23" t="n">
         <v>474.2699739100681</v>
@@ -6017,22 +6017,22 @@
         <v>474.2699739100681</v>
       </c>
       <c r="T23" t="n">
-        <v>474.2699739100681</v>
+        <v>368.780834258556</v>
       </c>
       <c r="U23" t="n">
-        <v>354.5048289832832</v>
+        <v>368.780834258556</v>
       </c>
       <c r="V23" t="n">
-        <v>354.5048289832832</v>
+        <v>368.780834258556</v>
       </c>
       <c r="W23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="X23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="Y23" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="C24" t="n">
-        <v>129.2505444049862</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="D24" t="n">
-        <v>9.485399478201362</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="E24" t="n">
         <v>9.485399478201362</v>
@@ -6069,13 +6069,13 @@
         <v>9.485399478201362</v>
       </c>
       <c r="K24" t="n">
-        <v>30.64764470543793</v>
+        <v>30.64764470543786</v>
       </c>
       <c r="L24" t="n">
         <v>105.42543615188</v>
       </c>
       <c r="M24" t="n">
-        <v>212.0444599015828</v>
+        <v>212.0444599015827</v>
       </c>
       <c r="N24" t="n">
         <v>329.4262784443246</v>
@@ -6096,22 +6096,22 @@
         <v>474.2699739100681</v>
       </c>
       <c r="T24" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U24" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V24" t="n">
-        <v>368.780834258556</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="W24" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="X24" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="Y24" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
     </row>
     <row r="25">
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="C25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="D25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="F25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="G25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="H25" t="n">
-        <v>164.5197015144282</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="I25" t="n">
-        <v>44.75455658764329</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="J25" t="n">
         <v>9.485399478201362</v>
       </c>
       <c r="K25" t="n">
-        <v>82.51754218583858</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="L25" t="n">
+        <v>25.84141967677823</v>
+      </c>
+      <c r="M25" t="n">
         <v>143.2232382195201</v>
-      </c>
-      <c r="M25" t="n">
-        <v>260.6050567622619</v>
       </c>
       <c r="N25" t="n">
         <v>260.6050567622619</v>
@@ -6172,25 +6172,25 @@
         <v>474.2699739100681</v>
       </c>
       <c r="S25" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="T25" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U25" t="n">
-        <v>234.7396840564984</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V25" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="W25" t="n">
-        <v>234.7396840564984</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="X25" t="n">
-        <v>234.7396840564984</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>114.9745391297135</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="C26" t="n">
-        <v>9.485399478201362</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="D26" t="n">
-        <v>9.485399478201362</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="E26" t="n">
-        <v>9.485399478201362</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="F26" t="n">
         <v>9.485399478201362</v>
@@ -6224,22 +6224,22 @@
         <v>9.485399478201362</v>
       </c>
       <c r="J26" t="n">
-        <v>101.8493158451424</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="K26" t="n">
-        <v>116.0309691001769</v>
+        <v>23.66705273323579</v>
       </c>
       <c r="L26" t="n">
-        <v>170.5263258485485</v>
+        <v>78.1624094816074</v>
       </c>
       <c r="M26" t="n">
-        <v>262.8323478063298</v>
+        <v>170.4684314393887</v>
       </c>
       <c r="N26" t="n">
-        <v>361.2457860811958</v>
+        <v>268.8818697142547</v>
       </c>
       <c r="O26" t="n">
-        <v>440.8395439201473</v>
+        <v>356.8881553673262</v>
       </c>
       <c r="P26" t="n">
         <v>474.2699739100681</v>
@@ -6254,22 +6254,22 @@
         <v>474.2699739100681</v>
       </c>
       <c r="T26" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U26" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V26" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="W26" t="n">
-        <v>234.7396840564984</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="X26" t="n">
-        <v>114.9745391297135</v>
+        <v>368.780834258556</v>
       </c>
       <c r="Y26" t="n">
-        <v>114.9745391297135</v>
+        <v>249.0156893317711</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6279,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>9.485399478201362</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="C27" t="n">
         <v>9.485399478201362</v>
@@ -6306,10 +6306,10 @@
         <v>9.485399478201362</v>
       </c>
       <c r="K27" t="n">
-        <v>30.64764470543793</v>
+        <v>30.64764470543786</v>
       </c>
       <c r="L27" t="n">
-        <v>105.4254361518799</v>
+        <v>105.42543615188</v>
       </c>
       <c r="M27" t="n">
         <v>212.0444599015827</v>
@@ -6327,28 +6327,28 @@
         <v>474.2699739100681</v>
       </c>
       <c r="R27" t="n">
-        <v>434.9373303346053</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="S27" t="n">
-        <v>434.9373303346053</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="T27" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U27" t="n">
-        <v>249.0156893317711</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="V27" t="n">
-        <v>249.0156893317711</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="W27" t="n">
-        <v>129.2505444049862</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="X27" t="n">
-        <v>129.2505444049862</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="Y27" t="n">
-        <v>129.2505444049862</v>
+        <v>114.9745391297135</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>457.155747372158</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="C28" t="n">
-        <v>457.155747372158</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="D28" t="n">
-        <v>457.155747372158</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E28" t="n">
-        <v>457.155747372158</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="F28" t="n">
-        <v>404.0499913679979</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="G28" t="n">
-        <v>284.2848464412131</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="H28" t="n">
-        <v>164.5197015144282</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="I28" t="n">
-        <v>44.75455658764329</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="J28" t="n">
         <v>9.485399478201362</v>
       </c>
       <c r="K28" t="n">
-        <v>82.51754218583858</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="L28" t="n">
-        <v>199.8993607285804</v>
+        <v>126.8672180209432</v>
       </c>
       <c r="M28" t="n">
-        <v>317.2811792713223</v>
+        <v>244.2490365636851</v>
       </c>
       <c r="N28" t="n">
-        <v>377.9868753050038</v>
+        <v>361.6308551064269</v>
       </c>
       <c r="O28" t="n">
         <v>377.9868753050038</v>
@@ -6403,31 +6403,31 @@
         <v>474.2699739100681</v>
       </c>
       <c r="Q28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="R28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="S28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="T28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V28" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="W28" t="n">
-        <v>457.155747372158</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="X28" t="n">
-        <v>457.155747372158</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="Y28" t="n">
-        <v>457.155747372158</v>
+        <v>114.9745391297135</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>249.0156893317711</v>
+        <v>368.780834258556</v>
       </c>
       <c r="C29" t="n">
         <v>249.0156893317711</v>
       </c>
       <c r="D29" t="n">
-        <v>249.0156893317711</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="E29" t="n">
-        <v>249.0156893317711</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="F29" t="n">
         <v>129.2505444049862</v>
@@ -6464,19 +6464,19 @@
         <v>9.485399478201362</v>
       </c>
       <c r="K29" t="n">
-        <v>23.66705273323579</v>
+        <v>116.0309691001769</v>
       </c>
       <c r="L29" t="n">
-        <v>78.1624094816074</v>
+        <v>170.5263258485485</v>
       </c>
       <c r="M29" t="n">
-        <v>170.4684314393887</v>
+        <v>262.8323478063298</v>
       </c>
       <c r="N29" t="n">
-        <v>268.8818697142547</v>
+        <v>361.2457860811958</v>
       </c>
       <c r="O29" t="n">
-        <v>386.2636882569965</v>
+        <v>440.8395439201473</v>
       </c>
       <c r="P29" t="n">
         <v>474.2699739100681</v>
@@ -6494,19 +6494,19 @@
         <v>474.2699739100681</v>
       </c>
       <c r="U29" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V29" t="n">
-        <v>249.0156893317711</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="W29" t="n">
-        <v>249.0156893317711</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="X29" t="n">
-        <v>249.0156893317711</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="Y29" t="n">
-        <v>249.0156893317711</v>
+        <v>474.2699739100681</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="C30" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="D30" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E30" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="F30" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="G30" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="H30" t="n">
-        <v>11.22428052863053</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="I30" t="n">
         <v>9.485399478201362</v>
@@ -6570,22 +6570,22 @@
         <v>474.2699739100681</v>
       </c>
       <c r="T30" t="n">
-        <v>354.5048289832832</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U30" t="n">
-        <v>234.7396840564984</v>
+        <v>368.780834258556</v>
       </c>
       <c r="V30" t="n">
-        <v>234.7396840564984</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="W30" t="n">
-        <v>234.7396840564984</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="X30" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="Y30" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="C31" t="n">
-        <v>129.2505444049862</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="D31" t="n">
-        <v>9.485399478201362</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="E31" t="n">
-        <v>9.485399478201362</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="F31" t="n">
-        <v>9.485399478201362</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="G31" t="n">
-        <v>9.485399478201362</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="H31" t="n">
-        <v>9.485399478201362</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="I31" t="n">
         <v>9.485399478201362</v>
@@ -6622,16 +6622,16 @@
         <v>9.485399478201362</v>
       </c>
       <c r="K31" t="n">
-        <v>82.51754218583858</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="L31" t="n">
-        <v>199.8993607285804</v>
+        <v>126.8672180209432</v>
       </c>
       <c r="M31" t="n">
-        <v>317.2811792713223</v>
+        <v>244.2490365636851</v>
       </c>
       <c r="N31" t="n">
-        <v>317.2811792713223</v>
+        <v>260.6050567622619</v>
       </c>
       <c r="O31" t="n">
         <v>377.9868753050038</v>
@@ -6640,31 +6640,31 @@
         <v>474.2699739100681</v>
       </c>
       <c r="Q31" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="R31" t="n">
-        <v>457.155747372158</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="S31" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="T31" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U31" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="V31" t="n">
-        <v>368.780834258556</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="W31" t="n">
-        <v>368.780834258556</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="X31" t="n">
-        <v>368.780834258556</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="Y31" t="n">
-        <v>249.0156893317711</v>
+        <v>234.7396840564984</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="C32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="D32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="F32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="G32" t="n">
         <v>9.485399478201362</v>
@@ -6704,16 +6704,16 @@
         <v>23.66705273323579</v>
       </c>
       <c r="L32" t="n">
-        <v>132.7382651447582</v>
+        <v>78.1624094816074</v>
       </c>
       <c r="M32" t="n">
-        <v>225.0442871025395</v>
+        <v>170.4684314393887</v>
       </c>
       <c r="N32" t="n">
-        <v>323.4577253774055</v>
+        <v>287.8502499821305</v>
       </c>
       <c r="O32" t="n">
-        <v>440.8395439201473</v>
+        <v>367.4440078210821</v>
       </c>
       <c r="P32" t="n">
         <v>474.2699739100681</v>
@@ -6722,28 +6722,28 @@
         <v>474.2699739100681</v>
       </c>
       <c r="R32" t="n">
-        <v>439.8159195915928</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="S32" t="n">
-        <v>320.0507746648079</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="T32" t="n">
-        <v>200.2856297380231</v>
+        <v>474.2699739100681</v>
       </c>
       <c r="U32" t="n">
-        <v>200.2856297380231</v>
+        <v>368.780834258556</v>
       </c>
       <c r="V32" t="n">
-        <v>200.2856297380231</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="W32" t="n">
-        <v>200.2856297380231</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="X32" t="n">
-        <v>200.2856297380231</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="Y32" t="n">
-        <v>80.52048481123819</v>
+        <v>9.485399478201362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="C33" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="D33" t="n">
-        <v>114.9745391297135</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E33" t="n">
         <v>9.485399478201362</v>
@@ -6780,13 +6780,13 @@
         <v>9.485399478201362</v>
       </c>
       <c r="K33" t="n">
-        <v>30.6476447054379</v>
+        <v>30.64764470543793</v>
       </c>
       <c r="L33" t="n">
         <v>105.42543615188</v>
       </c>
       <c r="M33" t="n">
-        <v>212.0444599015827</v>
+        <v>212.0444599015828</v>
       </c>
       <c r="N33" t="n">
         <v>329.4262784443246</v>
@@ -6810,19 +6810,19 @@
         <v>474.2699739100681</v>
       </c>
       <c r="U33" t="n">
-        <v>474.2699739100681</v>
+        <v>354.5048289832832</v>
       </c>
       <c r="V33" t="n">
-        <v>474.2699739100681</v>
+        <v>234.7396840564984</v>
       </c>
       <c r="W33" t="n">
-        <v>474.2699739100681</v>
+        <v>114.9745391297135</v>
       </c>
       <c r="X33" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="Y33" t="n">
-        <v>234.7396840564984</v>
+        <v>9.485399478201362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,46 +6832,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="C34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="D34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="E34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="F34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="G34" t="n">
-        <v>284.2848464412131</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="H34" t="n">
-        <v>164.5197015144282</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="I34" t="n">
-        <v>44.75455658764329</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="J34" t="n">
         <v>9.485399478201362</v>
       </c>
       <c r="K34" t="n">
-        <v>82.51754218583858</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="L34" t="n">
-        <v>199.8993607285804</v>
+        <v>25.84141967677823</v>
       </c>
       <c r="M34" t="n">
-        <v>317.2811792713223</v>
+        <v>143.2232382195201</v>
       </c>
       <c r="N34" t="n">
-        <v>434.6629978140642</v>
+        <v>260.6050567622619</v>
       </c>
       <c r="O34" t="n">
-        <v>474.2699739100681</v>
+        <v>377.9868753050038</v>
       </c>
       <c r="P34" t="n">
         <v>474.2699739100681</v>
@@ -6883,25 +6883,25 @@
         <v>474.2699739100681</v>
       </c>
       <c r="S34" t="n">
-        <v>474.2699739100681</v>
+        <v>368.780834258556</v>
       </c>
       <c r="T34" t="n">
-        <v>474.2699739100681</v>
+        <v>368.780834258556</v>
       </c>
       <c r="U34" t="n">
-        <v>474.2699739100681</v>
+        <v>249.0156893317711</v>
       </c>
       <c r="V34" t="n">
-        <v>474.2699739100681</v>
+        <v>129.2505444049862</v>
       </c>
       <c r="W34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="X34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
       <c r="Y34" t="n">
-        <v>354.5048289832832</v>
+        <v>9.485399478201362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>397.6300536358222</v>
+      </c>
+      <c r="C35" t="n">
+        <v>397.6300536358222</v>
+      </c>
+      <c r="D35" t="n">
+        <v>397.6300536358222</v>
+      </c>
+      <c r="E35" t="n">
+        <v>309.1874901907636</v>
+      </c>
+      <c r="F35" t="n">
+        <v>208.7758604847479</v>
+      </c>
+      <c r="G35" t="n">
         <v>108.3642307787321</v>
-      </c>
-      <c r="C35" t="n">
-        <v>108.3642307787321</v>
-      </c>
-      <c r="D35" t="n">
-        <v>108.3642307787321</v>
-      </c>
-      <c r="E35" t="n">
-        <v>108.3642307787321</v>
-      </c>
-      <c r="F35" t="n">
-        <v>7.952601072716443</v>
-      </c>
-      <c r="G35" t="n">
-        <v>7.952601072716443</v>
       </c>
       <c r="H35" t="n">
         <v>7.952601072716443</v>
@@ -6935,7 +6935,7 @@
         <v>7.952601072716443</v>
       </c>
       <c r="J35" t="n">
-        <v>25.20939557089654</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="K35" t="n">
         <v>39.39104882593097</v>
@@ -6962,25 +6962,25 @@
         <v>397.6300536358222</v>
       </c>
       <c r="S35" t="n">
-        <v>309.1874901907636</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="T35" t="n">
-        <v>309.1874901907636</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="U35" t="n">
-        <v>208.7758604847479</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="V35" t="n">
-        <v>208.7758604847479</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="W35" t="n">
-        <v>208.7758604847479</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="X35" t="n">
-        <v>108.3642307787321</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="Y35" t="n">
-        <v>108.3642307787321</v>
+        <v>397.6300536358222</v>
       </c>
     </row>
     <row r="36">
@@ -6990,19 +6990,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="C36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="D36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="E36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="F36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="G36" t="n">
         <v>7.952601072716443</v>
@@ -7020,13 +7020,13 @@
         <v>29.11484629995298</v>
       </c>
       <c r="L36" t="n">
-        <v>103.8926377463951</v>
+        <v>55.95948162034666</v>
       </c>
       <c r="M36" t="n">
-        <v>202.306076021261</v>
+        <v>154.3729198952126</v>
       </c>
       <c r="N36" t="n">
-        <v>300.719514296127</v>
+        <v>252.7863581700786</v>
       </c>
       <c r="O36" t="n">
         <v>343.8647116233619</v>
@@ -7038,28 +7038,28 @@
         <v>397.6300536358222</v>
       </c>
       <c r="R36" t="n">
-        <v>397.6300536358222</v>
+        <v>358.2974100603594</v>
       </c>
       <c r="S36" t="n">
-        <v>397.6300536358222</v>
+        <v>358.2974100603594</v>
       </c>
       <c r="T36" t="n">
-        <v>397.6300536358222</v>
+        <v>358.2974100603594</v>
       </c>
       <c r="U36" t="n">
-        <v>397.6300536358222</v>
+        <v>257.8857803543438</v>
       </c>
       <c r="V36" t="n">
-        <v>297.2184239298065</v>
+        <v>157.474150648328</v>
       </c>
       <c r="W36" t="n">
-        <v>196.8067942237908</v>
+        <v>57.06252094231235</v>
       </c>
       <c r="X36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="Y36" t="n">
-        <v>96.39516451777507</v>
+        <v>7.952601072716443</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>380.5158270979121</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="C37" t="n">
-        <v>280.1041973918964</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="D37" t="n">
-        <v>179.6925676858807</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="E37" t="n">
-        <v>79.28093797986497</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="F37" t="n">
-        <v>79.28093797986497</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="G37" t="n">
-        <v>79.28093797986497</v>
+        <v>196.8067942237908</v>
       </c>
       <c r="H37" t="n">
-        <v>79.28093797986497</v>
+        <v>96.39516451777507</v>
       </c>
       <c r="I37" t="n">
         <v>43.22175818215837</v>
@@ -7099,46 +7099,46 @@
         <v>7.952601072716443</v>
       </c>
       <c r="L37" t="n">
-        <v>7.952601072716443</v>
+        <v>106.3660393475824</v>
       </c>
       <c r="M37" t="n">
-        <v>104.5200784810259</v>
+        <v>204.7794776224484</v>
       </c>
       <c r="N37" t="n">
-        <v>202.9335167558919</v>
+        <v>299.2166153609562</v>
       </c>
       <c r="O37" t="n">
-        <v>301.3469550307579</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="P37" t="n">
         <v>397.6300536358222</v>
       </c>
       <c r="Q37" t="n">
-        <v>380.5158270979121</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="R37" t="n">
-        <v>380.5158270979121</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="S37" t="n">
-        <v>380.5158270979121</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="T37" t="n">
-        <v>380.5158270979121</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="U37" t="n">
-        <v>380.5158270979121</v>
+        <v>397.6300536358222</v>
       </c>
       <c r="V37" t="n">
-        <v>380.5158270979121</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="W37" t="n">
-        <v>380.5158270979121</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="X37" t="n">
-        <v>380.5158270979121</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="Y37" t="n">
-        <v>380.5158270979121</v>
+        <v>196.8067942237908</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>208.7758604847479</v>
+        <v>61.94111019929977</v>
       </c>
       <c r="C38" t="n">
-        <v>208.7758604847479</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="D38" t="n">
-        <v>208.7758604847479</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="E38" t="n">
-        <v>108.3642307787321</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="F38" t="n">
-        <v>108.3642307787321</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="G38" t="n">
-        <v>108.3642307787321</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="H38" t="n">
         <v>7.952601072716443</v>
@@ -7175,19 +7175,19 @@
         <v>7.952601072716443</v>
       </c>
       <c r="K38" t="n">
-        <v>39.39104882593097</v>
+        <v>22.13425432775087</v>
       </c>
       <c r="L38" t="n">
-        <v>93.88640557430257</v>
+        <v>76.62961107612247</v>
       </c>
       <c r="M38" t="n">
-        <v>186.1924275320839</v>
+        <v>168.9356330339037</v>
       </c>
       <c r="N38" t="n">
-        <v>284.6058658069499</v>
+        <v>267.3490713087697</v>
       </c>
       <c r="O38" t="n">
-        <v>364.1996236459014</v>
+        <v>346.9428291477212</v>
       </c>
       <c r="P38" t="n">
         <v>397.6300536358222</v>
@@ -7196,28 +7196,28 @@
         <v>397.6300536358222</v>
       </c>
       <c r="R38" t="n">
-        <v>397.6300536358222</v>
+        <v>363.1759993173469</v>
       </c>
       <c r="S38" t="n">
-        <v>397.6300536358222</v>
+        <v>262.7643696113312</v>
       </c>
       <c r="T38" t="n">
-        <v>309.1874901907636</v>
+        <v>262.7643696113312</v>
       </c>
       <c r="U38" t="n">
-        <v>208.7758604847479</v>
+        <v>262.7643696113312</v>
       </c>
       <c r="V38" t="n">
-        <v>208.7758604847479</v>
+        <v>262.7643696113312</v>
       </c>
       <c r="W38" t="n">
-        <v>208.7758604847479</v>
+        <v>262.7643696113312</v>
       </c>
       <c r="X38" t="n">
-        <v>208.7758604847479</v>
+        <v>162.3527399053155</v>
       </c>
       <c r="Y38" t="n">
-        <v>208.7758604847479</v>
+        <v>61.94111019929977</v>
       </c>
     </row>
     <row r="39">
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>7.952601072716443</v>
+        <v>96.39516451777507</v>
       </c>
       <c r="C39" t="n">
         <v>7.952601072716443</v>
@@ -7254,10 +7254,10 @@
         <v>7.952601072716443</v>
       </c>
       <c r="K39" t="n">
-        <v>29.11484629995298</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="L39" t="n">
-        <v>103.8926377463951</v>
+        <v>82.73039251915854</v>
       </c>
       <c r="M39" t="n">
         <v>154.3729198952126</v>
@@ -7278,25 +7278,25 @@
         <v>397.6300536358222</v>
       </c>
       <c r="S39" t="n">
-        <v>309.1874901907636</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="T39" t="n">
-        <v>208.7758604847479</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="U39" t="n">
-        <v>108.3642307787321</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="V39" t="n">
-        <v>108.3642307787321</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="W39" t="n">
-        <v>108.3642307787321</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="X39" t="n">
-        <v>108.3642307787321</v>
+        <v>297.2184239298065</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.952601072716443</v>
+        <v>196.8067942237908</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>196.8067942237908</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="C40" t="n">
-        <v>143.6333878881741</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="D40" t="n">
-        <v>143.6333878881741</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="E40" t="n">
-        <v>143.6333878881741</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="F40" t="n">
-        <v>143.6333878881741</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="G40" t="n">
-        <v>143.6333878881741</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="H40" t="n">
-        <v>143.6333878881741</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="I40" t="n">
-        <v>43.22175818215837</v>
+        <v>7.952601072716443</v>
       </c>
       <c r="J40" t="n">
         <v>7.952601072716443</v>
@@ -7351,31 +7351,31 @@
         <v>397.6300536358222</v>
       </c>
       <c r="Q40" t="n">
-        <v>397.6300536358222</v>
+        <v>380.5158270979121</v>
       </c>
       <c r="R40" t="n">
-        <v>397.6300536358222</v>
+        <v>280.1041973918964</v>
       </c>
       <c r="S40" t="n">
-        <v>397.6300536358222</v>
+        <v>179.6925676858807</v>
       </c>
       <c r="T40" t="n">
-        <v>397.6300536358222</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="U40" t="n">
-        <v>397.6300536358222</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="V40" t="n">
-        <v>397.6300536358222</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="W40" t="n">
-        <v>397.6300536358222</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="X40" t="n">
-        <v>297.2184239298065</v>
+        <v>108.3642307787321</v>
       </c>
       <c r="Y40" t="n">
-        <v>196.8067942237908</v>
+        <v>108.3642307787321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>185.146395969427</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="C41" t="n">
-        <v>101.9438727194927</v>
+        <v>245.1547885741288</v>
       </c>
       <c r="D41" t="n">
-        <v>101.9438727194927</v>
+        <v>150.6923416509517</v>
       </c>
       <c r="E41" t="n">
-        <v>7.481425796315624</v>
+        <v>56.22989472777465</v>
       </c>
       <c r="F41" t="n">
-        <v>7.481425796315624</v>
+        <v>56.22989472777465</v>
       </c>
       <c r="G41" t="n">
         <v>7.481425796315624</v>
@@ -7409,52 +7409,52 @@
         <v>7.481425796315624</v>
       </c>
       <c r="J41" t="n">
-        <v>7.481425796315794</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="K41" t="n">
-        <v>21.66307905135022</v>
+        <v>21.66307905135005</v>
       </c>
       <c r="L41" t="n">
-        <v>76.15843579972183</v>
+        <v>76.15843579972166</v>
       </c>
       <c r="M41" t="n">
-        <v>168.4644577575031</v>
+        <v>168.4644577575029</v>
       </c>
       <c r="N41" t="n">
-        <v>261.047101986909</v>
+        <v>261.0471019869088</v>
       </c>
       <c r="O41" t="n">
-        <v>340.6408598258604</v>
+        <v>340.6408598258603</v>
       </c>
       <c r="P41" t="n">
-        <v>374.0712898157812</v>
+        <v>374.071289815781</v>
       </c>
       <c r="Q41" t="n">
         <v>374.0712898157812</v>
       </c>
       <c r="R41" t="n">
-        <v>374.0712898157812</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="S41" t="n">
-        <v>374.0712898157812</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="T41" t="n">
-        <v>279.6088428926041</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="U41" t="n">
-        <v>279.6088428926041</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="V41" t="n">
-        <v>185.146395969427</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="W41" t="n">
-        <v>185.146395969427</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="X41" t="n">
-        <v>185.146395969427</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="Y41" t="n">
-        <v>185.146395969427</v>
+        <v>339.6172354973059</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>7.481425796315624</v>
+        <v>196.4063196426698</v>
       </c>
       <c r="C42" t="n">
-        <v>7.481425796315624</v>
+        <v>196.4063196426698</v>
       </c>
       <c r="D42" t="n">
-        <v>7.481425796315624</v>
+        <v>101.9438727194927</v>
       </c>
       <c r="E42" t="n">
         <v>7.481425796315624</v>
@@ -7500,7 +7500,7 @@
         <v>196.0041066994001</v>
       </c>
       <c r="N42" t="n">
-        <v>229.2275943500377</v>
+        <v>288.5867509288059</v>
       </c>
       <c r="O42" t="n">
         <v>320.305947803321</v>
@@ -7515,25 +7515,25 @@
         <v>374.0712898157812</v>
       </c>
       <c r="S42" t="n">
+        <v>374.0712898157812</v>
+      </c>
+      <c r="T42" t="n">
+        <v>374.0712898157812</v>
+      </c>
+      <c r="U42" t="n">
+        <v>374.0712898157812</v>
+      </c>
+      <c r="V42" t="n">
+        <v>374.0712898157812</v>
+      </c>
+      <c r="W42" t="n">
         <v>290.8687665658468</v>
       </c>
-      <c r="T42" t="n">
+      <c r="X42" t="n">
+        <v>290.8687665658468</v>
+      </c>
+      <c r="Y42" t="n">
         <v>196.4063196426698</v>
-      </c>
-      <c r="U42" t="n">
-        <v>101.9438727194927</v>
-      </c>
-      <c r="V42" t="n">
-        <v>7.481425796315624</v>
-      </c>
-      <c r="W42" t="n">
-        <v>7.481425796315624</v>
-      </c>
-      <c r="X42" t="n">
-        <v>7.481425796315624</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>7.481425796315624</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.146395969427</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="C43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="D43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="E43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="F43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="G43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="H43" t="n">
-        <v>90.68394904624995</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="I43" t="n">
         <v>7.481425796315624</v>
@@ -7570,49 +7570,49 @@
         <v>7.481425796315624</v>
       </c>
       <c r="K43" t="n">
-        <v>7.481425796315624</v>
+        <v>80.51356850395284</v>
       </c>
       <c r="L43" t="n">
-        <v>7.481425796315624</v>
+        <v>173.0962127333587</v>
       </c>
       <c r="M43" t="n">
-        <v>96.32335712756367</v>
+        <v>188.9060013569695</v>
       </c>
       <c r="N43" t="n">
-        <v>188.9060013569695</v>
+        <v>281.4886455863754</v>
       </c>
       <c r="O43" t="n">
-        <v>281.4886455863754</v>
+        <v>374.0712898157812</v>
       </c>
       <c r="P43" t="n">
         <v>374.0712898157812</v>
       </c>
       <c r="Q43" t="n">
-        <v>374.0712898157812</v>
+        <v>356.9570632778712</v>
       </c>
       <c r="R43" t="n">
-        <v>374.0712898157812</v>
+        <v>262.4946163546941</v>
       </c>
       <c r="S43" t="n">
-        <v>374.0712898157812</v>
+        <v>168.032169431517</v>
       </c>
       <c r="T43" t="n">
-        <v>374.0712898157812</v>
+        <v>73.56972250833991</v>
       </c>
       <c r="U43" t="n">
-        <v>374.0712898157812</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="V43" t="n">
-        <v>374.0712898157812</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="W43" t="n">
-        <v>279.6088428926041</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="X43" t="n">
-        <v>279.6088428926041</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="Y43" t="n">
-        <v>185.146395969427</v>
+        <v>7.481425796315624</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7622,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>196.4063196426698</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="C44" t="n">
-        <v>101.9438727194927</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="D44" t="n">
         <v>7.481425796315624</v>
@@ -7670,28 +7670,28 @@
         <v>374.0712898157812</v>
       </c>
       <c r="R44" t="n">
-        <v>374.0712898157812</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="S44" t="n">
-        <v>374.0712898157812</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="T44" t="n">
-        <v>374.0712898157812</v>
+        <v>339.6172354973059</v>
       </c>
       <c r="U44" t="n">
-        <v>374.0712898157812</v>
+        <v>245.1547885741288</v>
       </c>
       <c r="V44" t="n">
-        <v>374.0712898157812</v>
+        <v>150.6923416509517</v>
       </c>
       <c r="W44" t="n">
-        <v>290.8687665658468</v>
+        <v>56.22989472777465</v>
       </c>
       <c r="X44" t="n">
-        <v>290.8687665658468</v>
+        <v>56.22989472777465</v>
       </c>
       <c r="Y44" t="n">
-        <v>196.4063196426698</v>
+        <v>56.22989472777465</v>
       </c>
     </row>
     <row r="45">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>7.481425796315624</v>
+        <v>101.9438727194927</v>
       </c>
       <c r="C45" t="n">
         <v>7.481425796315624</v>
@@ -7758,19 +7758,19 @@
         <v>374.0712898157812</v>
       </c>
       <c r="U45" t="n">
-        <v>279.6088428926041</v>
+        <v>290.8687665658468</v>
       </c>
       <c r="V45" t="n">
-        <v>185.146395969427</v>
+        <v>196.4063196426698</v>
       </c>
       <c r="W45" t="n">
-        <v>185.146395969427</v>
+        <v>196.4063196426698</v>
       </c>
       <c r="X45" t="n">
-        <v>185.146395969427</v>
+        <v>196.4063196426698</v>
       </c>
       <c r="Y45" t="n">
-        <v>90.68394904624995</v>
+        <v>196.4063196426698</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>101.9438727194927</v>
+        <v>73.56972250833991</v>
       </c>
       <c r="C46" t="n">
-        <v>101.9438727194927</v>
+        <v>73.56972250833991</v>
       </c>
       <c r="D46" t="n">
-        <v>101.9438727194927</v>
+        <v>73.56972250833991</v>
       </c>
       <c r="E46" t="n">
-        <v>101.9438727194927</v>
+        <v>7.481425796315624</v>
       </c>
       <c r="F46" t="n">
         <v>7.481425796315624</v>
@@ -7813,7 +7813,7 @@
         <v>7.481425796315624</v>
       </c>
       <c r="M46" t="n">
-        <v>96.32335712756367</v>
+        <v>100.0640700257215</v>
       </c>
       <c r="N46" t="n">
         <v>188.9060013569695</v>
@@ -7834,13 +7834,13 @@
         <v>356.9570632778712</v>
       </c>
       <c r="T46" t="n">
-        <v>356.9570632778712</v>
+        <v>262.4946163546941</v>
       </c>
       <c r="U46" t="n">
         <v>262.4946163546941</v>
       </c>
       <c r="V46" t="n">
-        <v>262.4946163546941</v>
+        <v>168.032169431517</v>
       </c>
       <c r="W46" t="n">
         <v>168.032169431517</v>
@@ -7849,7 +7849,7 @@
         <v>168.032169431517</v>
       </c>
       <c r="Y46" t="n">
-        <v>101.9438727194927</v>
+        <v>168.032169431517</v>
       </c>
     </row>
   </sheetData>
@@ -8851,19 +8851,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>105.5052177510083</v>
+        <v>11.98739529706293</v>
       </c>
       <c r="M13" t="n">
         <v>102.8656550740382</v>
       </c>
       <c r="N13" t="n">
-        <v>1.188667199327313</v>
+        <v>17.15815065752008</v>
       </c>
       <c r="O13" t="n">
         <v>115.134020637844</v>
       </c>
       <c r="P13" t="n">
-        <v>53.7203916156034</v>
+        <v>131.2687306113559</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -9088,16 +9088,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>105.5052177510083</v>
+        <v>11.98739529706293</v>
       </c>
       <c r="M16" t="n">
         <v>102.8656550740382</v>
       </c>
       <c r="N16" t="n">
-        <v>17.15815065752011</v>
+        <v>17.15815065752005</v>
       </c>
       <c r="O16" t="n">
-        <v>21.61619818389863</v>
+        <v>115.134020637844</v>
       </c>
       <c r="P16" t="n">
         <v>131.2687306113559</v>
@@ -9328,10 +9328,10 @@
         <v>111.3949087060185</v>
       </c>
       <c r="M19" t="n">
-        <v>104.7388808408078</v>
+        <v>108.7553460290484</v>
       </c>
       <c r="N19" t="n">
-        <v>100.5961806082829</v>
+        <v>96.57971542004226</v>
       </c>
       <c r="O19" t="n">
         <v>121.0237115928542</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>17.43110555371851</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>17.43110555371842</v>
       </c>
       <c r="Q20" t="n">
         <v>23.30089486733084</v>
@@ -9562,16 +9562,16 @@
         <v>32.97392522582705</v>
       </c>
       <c r="L22" t="n">
-        <v>111.3949087060188</v>
+        <v>107.3784435177781</v>
       </c>
       <c r="M22" t="n">
         <v>108.7553460290487</v>
       </c>
       <c r="N22" t="n">
-        <v>100.5961806082832</v>
+        <v>100.5961806082831</v>
       </c>
       <c r="O22" t="n">
-        <v>117.0072464046139</v>
+        <v>121.0237115928545</v>
       </c>
       <c r="P22" t="n">
         <v>37.75090815741056</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>33.13560359119526</v>
+        <v>24.63810074864978</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,16 +9644,16 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>25.32908745955612</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>38.1697582866569</v>
       </c>
       <c r="P23" t="n">
-        <v>84.79938237658695</v>
+        <v>29.79803947291943</v>
       </c>
       <c r="Q23" t="n">
         <v>23.30089486733084</v>
@@ -9796,16 +9796,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>32.97392522582705</v>
       </c>
       <c r="L25" t="n">
-        <v>73.30628017956951</v>
+        <v>28.50862782087797</v>
       </c>
       <c r="M25" t="n">
         <v>127.9153260976099</v>
       </c>
       <c r="N25" t="n">
-        <v>1.188667199327327</v>
+        <v>119.7561606768443</v>
       </c>
       <c r="O25" t="n">
         <v>140.1836916614157</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.9349859677822</v>
+        <v>24.63810074864978</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9887,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>8.497502842545529</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>84.79938237658695</v>
       </c>
       <c r="Q26" t="n">
         <v>23.30089486733084</v>
@@ -10033,7 +10033,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>32.97392522582705</v>
       </c>
       <c r="L28" t="n">
         <v>130.55488877458</v>
@@ -10042,10 +10042,10 @@
         <v>127.9153260976099</v>
       </c>
       <c r="N28" t="n">
-        <v>62.50755208183393</v>
+        <v>119.7561606768443</v>
       </c>
       <c r="O28" t="n">
-        <v>21.61619818389865</v>
+        <v>38.13743070771371</v>
       </c>
       <c r="P28" t="n">
         <v>135.0065633140411</v>
@@ -10112,7 +10112,7 @@
         <v>24.63810074864978</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.29688521913241</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,10 +10124,10 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>38.1697582866569</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>55.12712693247558</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>23.30089486733084</v>
@@ -10270,7 +10270,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>32.97392522582705</v>
       </c>
       <c r="L31" t="n">
         <v>130.55488877458</v>
@@ -10279,10 +10279,10 @@
         <v>127.9153260976099</v>
       </c>
       <c r="N31" t="n">
-        <v>1.188667199327327</v>
+        <v>17.70989972314234</v>
       </c>
       <c r="O31" t="n">
-        <v>82.93508306640524</v>
+        <v>140.1836916614157</v>
       </c>
       <c r="P31" t="n">
         <v>135.0065633140411</v>
@@ -10352,19 +10352,19 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>55.12712693247556</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>19.15998006856148</v>
       </c>
       <c r="O32" t="n">
-        <v>38.16975828665693</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>74.13690515057093</v>
       </c>
       <c r="Q32" t="n">
         <v>23.30089486733084</v>
@@ -10507,10 +10507,10 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>32.97392522582705</v>
       </c>
       <c r="L34" t="n">
-        <v>130.55488877458</v>
+        <v>28.50862782087797</v>
       </c>
       <c r="M34" t="n">
         <v>127.9153260976099</v>
@@ -10519,10 +10519,10 @@
         <v>119.7561606768443</v>
       </c>
       <c r="O34" t="n">
-        <v>61.62324474551875</v>
+        <v>140.1836916614157</v>
       </c>
       <c r="P34" t="n">
-        <v>37.75090815741056</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>42.06920630236704</v>
+        <v>24.63810074864978</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>17.43110555371727</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10747,19 +10747,19 @@
         <v>32.97392522582705</v>
       </c>
       <c r="L37" t="n">
-        <v>11.98739529706295</v>
+        <v>111.3949087060185</v>
       </c>
       <c r="M37" t="n">
-        <v>106.8907390931327</v>
+        <v>108.7553460290484</v>
       </c>
       <c r="N37" t="n">
-        <v>100.5961806082829</v>
+        <v>96.57971542004222</v>
       </c>
       <c r="O37" t="n">
         <v>121.0237115928542</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>37.75090815741056</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10823,7 +10823,7 @@
         <v>24.63810074864978</v>
       </c>
       <c r="K38" t="n">
-        <v>17.43110555371727</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>17.43110555371733</v>
       </c>
       <c r="Q38" t="n">
         <v>23.30089486733084</v>
@@ -11218,13 +11218,13 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>32.97392522582705</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
-        <v>11.98739529706295</v>
+        <v>105.5052177510082</v>
       </c>
       <c r="M43" t="n">
-        <v>99.08715719711108</v>
+        <v>25.31731607828559</v>
       </c>
       <c r="N43" t="n">
         <v>94.70648965327264</v>
@@ -11233,7 +11233,7 @@
         <v>115.134020637844</v>
       </c>
       <c r="P43" t="n">
-        <v>131.2687306113559</v>
+        <v>37.75090815741056</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11461,10 +11461,10 @@
         <v>11.98739529706295</v>
       </c>
       <c r="M46" t="n">
-        <v>99.08715719711108</v>
+        <v>102.8656550740381</v>
       </c>
       <c r="N46" t="n">
-        <v>94.70648965327264</v>
+        <v>90.92799177634556</v>
       </c>
       <c r="O46" t="n">
         <v>115.134020637844</v>
@@ -22796,7 +22796,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.25430980652214</v>
+        <v>14.25430980652213</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23258,10 +23258,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>282.9023937535725</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>261.1652191667376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23273,10 +23273,10 @@
         <v>413.4599085629792</v>
       </c>
       <c r="H11" t="n">
-        <v>227.0841076555558</v>
+        <v>320.6019301095012</v>
       </c>
       <c r="I11" t="n">
-        <v>45.91240393847259</v>
+        <v>139.430226392418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>215.0288658260692</v>
       </c>
       <c r="U11" t="n">
-        <v>251.198226591664</v>
+        <v>168.827728574229</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>234.2344360161895</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>255.7231462634676</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>276.2132782245237</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23337,7 +23337,7 @@
         <v>73.01536119592195</v>
       </c>
       <c r="C12" t="n">
-        <v>79.19067653437035</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23352,10 +23352,10 @@
         <v>136.3575167479133</v>
       </c>
       <c r="H12" t="n">
-        <v>9.194933561126746</v>
+        <v>102.7127560150721</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>55.44881153525657</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23385,19 +23385,19 @@
         <v>38.93931713970809</v>
       </c>
       <c r="S12" t="n">
-        <v>126.4469593638337</v>
+        <v>153.3686458460122</v>
       </c>
       <c r="T12" t="n">
         <v>196.1904550910573</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8765136326</v>
+        <v>132.3586911786546</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>139.2827646954799</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>169.3244851434846</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>97.9670155438437</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>73.6465272782287</v>
+        <v>167.1643497321741</v>
       </c>
       <c r="H13" t="n">
-        <v>61.35986119434513</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I13" t="n">
-        <v>37.07364516649791</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.94308427253094</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>140.1251174534975</v>
+        <v>46.60729499955214</v>
       </c>
       <c r="S13" t="n">
-        <v>209.610698095266</v>
+        <v>116.0928756413206</v>
       </c>
       <c r="T13" t="n">
-        <v>224.4136264796107</v>
+        <v>130.8958040256653</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2739404677844</v>
+        <v>255.7629922612278</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23510,10 +23510,10 @@
         <v>413.4599085629792</v>
       </c>
       <c r="H14" t="n">
-        <v>227.0841076555558</v>
+        <v>227.0841076555559</v>
       </c>
       <c r="I14" t="n">
-        <v>45.91240393847259</v>
+        <v>139.430226392418</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23549,13 @@
         <v>215.0288658260692</v>
       </c>
       <c r="U14" t="n">
-        <v>251.198226591664</v>
+        <v>157.6804041377187</v>
       </c>
       <c r="V14" t="n">
-        <v>245.3817604526999</v>
+        <v>234.2344360161896</v>
       </c>
       <c r="W14" t="n">
-        <v>255.7231462634676</v>
+        <v>266.870470699978</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>79.1906765343704</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>130.7233939732224</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>51.55138993943849</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>42.8396942939679</v>
+        <v>42.83969429396794</v>
       </c>
       <c r="H15" t="n">
-        <v>9.194933561126746</v>
+        <v>102.7127560150721</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>55.44881153525657</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23631,10 +23631,10 @@
         <v>225.8765136326</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>150.4300891319903</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>158.1771607069743</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>51.90322556898586</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>119.7103172530866</v>
+        <v>167.1643497321741</v>
       </c>
       <c r="H16" t="n">
-        <v>61.35986119434513</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I16" t="n">
-        <v>37.07364516649791</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.94308427253094</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>140.1251174534975</v>
+        <v>46.60729499955218</v>
       </c>
       <c r="S16" t="n">
-        <v>209.610698095266</v>
+        <v>116.0928756413207</v>
       </c>
       <c r="T16" t="n">
-        <v>224.4136264796107</v>
+        <v>130.8958040256653</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2739404677844</v>
+        <v>255.7629922612279</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23741,16 +23741,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>307.4685323327558</v>
       </c>
       <c r="G17" t="n">
-        <v>413.4599085629792</v>
+        <v>314.0523951540236</v>
       </c>
       <c r="H17" t="n">
         <v>221.1944167005456</v>
       </c>
       <c r="I17" t="n">
-        <v>40.02271298346238</v>
+        <v>85.98160235710048</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>34.10951377529054</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.4684670283861</v>
+        <v>167.0266048389942</v>
       </c>
       <c r="T17" t="n">
         <v>215.0288658260692</v>
@@ -23795,7 +23795,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>270.3235872695134</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23814,22 +23814,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>59.88692775403072</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>52.49168984878489</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>36.95000333895769</v>
+        <v>136.3575167479133</v>
       </c>
       <c r="H18" t="n">
-        <v>3.305242606116536</v>
+        <v>102.7127560150721</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>55.44881153525657</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.93931713970809</v>
       </c>
       <c r="S18" t="n">
         <v>153.3686458460122</v>
@@ -23868,16 +23868,16 @@
         <v>225.8765136326</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>133.3930737404697</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>152.287469751964</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>106.2751823683488</v>
       </c>
     </row>
     <row r="19">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>80.4244667729817</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>67.83930768967224</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>61.05733520760432</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,7 +23905,7 @@
         <v>167.1643497321741</v>
       </c>
       <c r="H19" t="n">
-        <v>55.47017023933492</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I19" t="n">
         <v>130.5914676204433</v>
@@ -23941,13 +23941,13 @@
         <v>209.610698095266</v>
       </c>
       <c r="T19" t="n">
-        <v>224.4136264796107</v>
+        <v>125.0061130706551</v>
       </c>
       <c r="U19" t="n">
-        <v>198.7158026571763</v>
+        <v>286.2739404677844</v>
       </c>
       <c r="V19" t="n">
-        <v>152.7301299148724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>119.1771399431392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23975,13 +23975,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>282.522856663306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>307.4685323327556</v>
       </c>
       <c r="G20" t="n">
-        <v>325.9017707523709</v>
+        <v>413.4599085629792</v>
       </c>
       <c r="H20" t="n">
         <v>320.6019301095012</v>
@@ -24026,16 +24026,16 @@
         <v>251.198226591664</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>240.1941206595266</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>249.8334553084572</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>270.3235872695132</v>
       </c>
       <c r="Y20" t="n">
-        <v>286.8304252470978</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24051,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>48.03755215568292</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24066,7 +24066,7 @@
         <v>102.7127560150721</v>
       </c>
       <c r="I21" t="n">
-        <v>6.829990864356411</v>
+        <v>55.44881153525657</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.9393171397081</v>
       </c>
       <c r="S21" t="n">
-        <v>153.3686458460122</v>
+        <v>65.81050803540393</v>
       </c>
       <c r="T21" t="n">
-        <v>196.1904550910573</v>
+        <v>96.78294168210148</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8765136326</v>
+        <v>126.4690002236442</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>133.3930737404694</v>
       </c>
       <c r="W21" t="n">
-        <v>152.2874697519638</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>106.2751823683485</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24127,19 +24127,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>67.839307689672</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>47.02644923761333</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>46.01353461397541</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>67.75683632321825</v>
+        <v>167.1643497321741</v>
       </c>
       <c r="H22" t="n">
         <v>154.8776836482905</v>
@@ -24181,7 +24181,7 @@
         <v>224.4136264796107</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2739404677844</v>
+        <v>186.8664270588286</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>126.3021419800813</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>288.3085522641944</v>
       </c>
       <c r="G23" t="n">
         <v>294.8924150854622</v>
       </c>
       <c r="H23" t="n">
-        <v>320.6019301095012</v>
+        <v>202.0344366319842</v>
       </c>
       <c r="I23" t="n">
-        <v>34.99597813742098</v>
+        <v>139.430226392418</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,16 +24257,16 @@
         <v>167.0266048389942</v>
       </c>
       <c r="T23" t="n">
-        <v>215.0288658260692</v>
+        <v>110.5946175710722</v>
       </c>
       <c r="U23" t="n">
-        <v>132.630733114147</v>
+        <v>251.198226591664</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>230.673475239896</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,13 +24285,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>54.14100551079872</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>28.87757208712173</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>53.21083220040394</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24336,13 +24336,13 @@
         <v>153.3686458460122</v>
       </c>
       <c r="T24" t="n">
-        <v>91.75620683606033</v>
+        <v>196.1904550910573</v>
       </c>
       <c r="U24" t="n">
         <v>225.8765136326</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>114.2330936719083</v>
       </c>
       <c r="W24" t="n">
         <v>133.1274896834026</v>
@@ -24379,13 +24379,13 @@
         <v>167.1643497321741</v>
       </c>
       <c r="H25" t="n">
-        <v>85.35990093164102</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I25" t="n">
-        <v>12.02397414292631</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>34.91646553834751</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24412,25 +24412,25 @@
         <v>140.1251174534976</v>
       </c>
       <c r="S25" t="n">
-        <v>91.04320461774898</v>
+        <v>209.610698095266</v>
       </c>
       <c r="T25" t="n">
         <v>224.4136264796107</v>
       </c>
       <c r="U25" t="n">
-        <v>167.7064469902674</v>
+        <v>286.2739404677844</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>147.703395068831</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>167.955504859074</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>107.1421619115201</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>100.0171598745778</v>
       </c>
     </row>
     <row r="26">
@@ -24443,7 +24443,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>260.8386435160106</v>
+        <v>246.7053982934905</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24452,7 +24452,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>288.3085522641944</v>
       </c>
       <c r="G26" t="n">
         <v>413.4599085629792</v>
@@ -24494,7 +24494,7 @@
         <v>167.0266048389942</v>
       </c>
       <c r="T26" t="n">
-        <v>96.46137234855217</v>
+        <v>215.0288658260692</v>
       </c>
       <c r="U26" t="n">
         <v>251.198226591664</v>
@@ -24503,13 +24503,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>230.673475239896</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>251.163607200952</v>
+        <v>265.296852423472</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>267.6704451785366</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>47.96569017235032</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>68.27425073331874</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24567,13 +24567,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>38.9393171397081</v>
       </c>
       <c r="S27" t="n">
         <v>153.3686458460122</v>
       </c>
       <c r="T27" t="n">
-        <v>130.6955239757684</v>
+        <v>196.1904550910573</v>
       </c>
       <c r="U27" t="n">
         <v>107.309020155083</v>
@@ -24585,7 +24585,7 @@
         <v>133.1274896834026</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>87.20549172596046</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24604,25 +24604,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>44.18122476321535</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>92.84634957881272</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>48.59685625465707</v>
+        <v>167.1643497321741</v>
       </c>
       <c r="H28" t="n">
-        <v>36.3101901707735</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I28" t="n">
-        <v>12.02397414292631</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>34.91646553834751</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>16.94308427253094</v>
       </c>
       <c r="R28" t="n">
         <v>140.1251174534976</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>167.955504859074</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>107.1421619115201</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>100.0171598745778</v>
       </c>
     </row>
     <row r="29">
@@ -24677,19 +24677,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>278.2995934084836</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>246.7053982934905</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>236.1155481431659</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>288.3085522641944</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.4599085629792</v>
@@ -24734,10 +24734,10 @@
         <v>215.0288658260692</v>
       </c>
       <c r="U29" t="n">
-        <v>146.763978336667</v>
+        <v>251.198226591664</v>
       </c>
       <c r="V29" t="n">
-        <v>209.1847649926179</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24762,7 +24762,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>28.87757208712173</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -24774,10 +24774,10 @@
         <v>136.3575167479133</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>102.7127560150721</v>
       </c>
       <c r="I30" t="n">
-        <v>53.72731929533169</v>
+        <v>55.44881153525657</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24810,19 +24810,19 @@
         <v>153.3686458460122</v>
       </c>
       <c r="T30" t="n">
-        <v>77.6229616135403</v>
+        <v>196.1904550910573</v>
       </c>
       <c r="U30" t="n">
-        <v>107.309020155083</v>
+        <v>121.442265377603</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>114.2330936719083</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>133.1274896834026</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>87.20549172596046</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>48.67932762111082</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>30.04797954069534</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.1643497321741</v>
+        <v>48.59685625465707</v>
       </c>
       <c r="H31" t="n">
         <v>154.8776836482905</v>
       </c>
       <c r="I31" t="n">
-        <v>130.5914676204433</v>
+        <v>26.15721936544632</v>
       </c>
       <c r="J31" t="n">
         <v>34.91646553834751</v>
@@ -24880,13 +24880,13 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>16.94308427253094</v>
       </c>
       <c r="R31" t="n">
         <v>140.1251174534976</v>
       </c>
       <c r="S31" t="n">
-        <v>122.1195341128</v>
+        <v>209.610698095266</v>
       </c>
       <c r="T31" t="n">
         <v>224.4136264796107</v>
@@ -24898,13 +24898,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>167.955504859074</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>107.1421619115201</v>
       </c>
       <c r="Y31" t="n">
-        <v>100.0171598745778</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24929,7 +24929,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>343.1351740832727</v>
+        <v>413.4599085629792</v>
       </c>
       <c r="H32" t="n">
         <v>320.6019301095012</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>34.10951377529055</v>
       </c>
       <c r="S32" t="n">
-        <v>48.45911136147717</v>
+        <v>167.0266048389942</v>
       </c>
       <c r="T32" t="n">
-        <v>96.46137234855217</v>
+        <v>215.0288658260692</v>
       </c>
       <c r="U32" t="n">
-        <v>251.198226591664</v>
+        <v>146.763978336667</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>209.1847649926179</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>230.673475239896</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>251.163607200952</v>
       </c>
       <c r="Y32" t="n">
-        <v>267.6704451785366</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24996,13 +24996,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>54.14100551079872</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>53.21083220040394</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
@@ -25050,19 +25050,19 @@
         <v>196.1904550910573</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8765136326</v>
+        <v>107.309020155083</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>114.2330936719083</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>133.1274896834026</v>
       </c>
       <c r="X33" t="n">
-        <v>87.20549172596046</v>
+        <v>101.3387369484805</v>
       </c>
       <c r="Y33" t="n">
-        <v>87.11520229978734</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>97.64656701552462</v>
+        <v>167.1643497321741</v>
       </c>
       <c r="H34" t="n">
-        <v>36.3101901707735</v>
+        <v>154.8776836482905</v>
       </c>
       <c r="I34" t="n">
-        <v>12.02397414292631</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>34.91646553834751</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25123,16 +25123,16 @@
         <v>140.1251174534976</v>
       </c>
       <c r="S34" t="n">
-        <v>209.610698095266</v>
+        <v>105.176449840269</v>
       </c>
       <c r="T34" t="n">
         <v>224.4136264796107</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2739404677844</v>
+        <v>167.7064469902674</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>133.570149846311</v>
       </c>
       <c r="W34" t="n">
         <v>167.955504859074</v>
@@ -25160,16 +25160,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>294.3722322616538</v>
       </c>
       <c r="F35" t="n">
         <v>307.4685323327559</v>
       </c>
       <c r="G35" t="n">
-        <v>413.4599085629792</v>
+        <v>314.0523951540237</v>
       </c>
       <c r="H35" t="n">
-        <v>320.6019301095012</v>
+        <v>221.1944167005457</v>
       </c>
       <c r="I35" t="n">
         <v>139.430226392418</v>
@@ -25202,13 +25202,13 @@
         <v>34.10951377529055</v>
       </c>
       <c r="S35" t="n">
-        <v>79.46846702838621</v>
+        <v>167.0266048389942</v>
       </c>
       <c r="T35" t="n">
         <v>215.0288658260692</v>
       </c>
       <c r="U35" t="n">
-        <v>151.7907131827085</v>
+        <v>251.198226591664</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25217,7 +25217,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>270.3235872695135</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25245,7 +25245,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>48.79937893730525</v>
+        <v>136.3575167479133</v>
       </c>
       <c r="H36" t="n">
         <v>102.7127560150721</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.9393171397081</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>153.3686458460122</v>
@@ -25287,7 +25287,7 @@
         <v>196.1904550910573</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8765136326</v>
+        <v>126.4690002236445</v>
       </c>
       <c r="V36" t="n">
         <v>133.3930737404697</v>
@@ -25296,7 +25296,7 @@
         <v>152.2874697519641</v>
       </c>
       <c r="X36" t="n">
-        <v>106.3654717945219</v>
+        <v>157.1541645325775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>67.8393076896723</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>49.20795960925682</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>47.02644923761363</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>167.1643497321741</v>
       </c>
       <c r="H37" t="n">
-        <v>154.8776836482905</v>
+        <v>55.47017023933498</v>
       </c>
       <c r="I37" t="n">
-        <v>94.89287962071379</v>
+        <v>77.94979534818279</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>16.94308427253094</v>
       </c>
       <c r="R37" t="n">
         <v>140.1251174534976</v>
@@ -25369,7 +25369,7 @@
         <v>286.2739404677844</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>152.7301299148725</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>119.1771399431393</v>
       </c>
     </row>
     <row r="38">
@@ -25391,13 +25391,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>311.8242677356901</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>282.5228566633062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25406,7 @@
         <v>413.4599085629792</v>
       </c>
       <c r="H38" t="n">
-        <v>221.1944167005457</v>
+        <v>320.6019301095012</v>
       </c>
       <c r="I38" t="n">
         <v>139.430226392418</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>34.10951377529055</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>167.0266048389942</v>
+        <v>67.61909143003865</v>
       </c>
       <c r="T38" t="n">
-        <v>127.4707280154612</v>
+        <v>215.0288658260692</v>
       </c>
       <c r="U38" t="n">
-        <v>151.7907131827085</v>
+        <v>251.198226591664</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,10 +25454,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>270.3235872695135</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>286.830425247098</v>
       </c>
     </row>
     <row r="39">
@@ -25467,10 +25467,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>67.1256702409118</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>85.15036117770771</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25518,13 +25518,13 @@
         <v>38.9393171397081</v>
       </c>
       <c r="S39" t="n">
-        <v>65.81050803540421</v>
+        <v>53.96113243705665</v>
       </c>
       <c r="T39" t="n">
-        <v>96.78294168210178</v>
+        <v>196.1904550910573</v>
       </c>
       <c r="U39" t="n">
-        <v>126.4690002236445</v>
+        <v>225.8765136326</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>114.6051488263673</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25561,16 +25561,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.1643497321741</v>
+        <v>67.75683632321855</v>
       </c>
       <c r="H40" t="n">
         <v>154.8776836482905</v>
       </c>
       <c r="I40" t="n">
-        <v>31.18395421148779</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>34.91646553834751</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,16 +25591,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.94308427253094</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>140.1251174534976</v>
+        <v>40.71760404454201</v>
       </c>
       <c r="S40" t="n">
-        <v>209.610698095266</v>
+        <v>110.2031846863105</v>
       </c>
       <c r="T40" t="n">
-        <v>224.4136264796107</v>
+        <v>153.7985729415336</v>
       </c>
       <c r="U40" t="n">
         <v>286.2739404677844</v>
@@ -25612,10 +25612,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>126.3021419800816</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.1771399431393</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>282.9023937535726</v>
+        <v>271.7550693170622</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>261.1652191667376</v>
       </c>
       <c r="E41" t="n">
         <v>288.4125476183165</v>
@@ -25640,7 +25640,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.4599085629792</v>
+        <v>365.1989243208347</v>
       </c>
       <c r="H41" t="n">
         <v>320.6019301095012</v>
@@ -25673,19 +25673,19 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>34.10951377529055</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>167.0266048389942</v>
       </c>
       <c r="T41" t="n">
-        <v>121.5110433721239</v>
+        <v>215.0288658260692</v>
       </c>
       <c r="U41" t="n">
         <v>251.198226591664</v>
       </c>
       <c r="V41" t="n">
-        <v>234.2344360161896</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25710,10 +25710,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>53.92724311069345</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>64.12725800145564</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>38.9393171397081</v>
       </c>
       <c r="S42" t="n">
-        <v>70.99814782857717</v>
+        <v>153.3686458460122</v>
       </c>
       <c r="T42" t="n">
-        <v>102.672632637112</v>
+        <v>196.1904550910573</v>
       </c>
       <c r="U42" t="n">
-        <v>132.3586911786547</v>
+        <v>225.8765136326</v>
       </c>
       <c r="V42" t="n">
-        <v>139.28276469548</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>169.3244851434846</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>112.1648733233591</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>73.72899864468253</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>154.8776836482905</v>
       </c>
       <c r="I43" t="n">
-        <v>48.22096960300834</v>
+        <v>130.5914676204433</v>
       </c>
       <c r="J43" t="n">
         <v>34.91646553834751</v>
@@ -25828,31 +25828,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.94308427253094</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>140.1251174534976</v>
+        <v>46.60729499955225</v>
       </c>
       <c r="S43" t="n">
-        <v>209.610698095266</v>
+        <v>116.0928756413207</v>
       </c>
       <c r="T43" t="n">
-        <v>224.4136264796107</v>
+        <v>130.8958040256654</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2739404677844</v>
+        <v>220.8465267228804</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>193.0051758826457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>125.0668308981495</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>334.4728574213361</v>
       </c>
       <c r="C44" t="n">
-        <v>271.7550693170622</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>261.1652191667376</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>34.10951377529055</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>167.0266048389942</v>
@@ -25919,19 +25919,19 @@
         <v>215.0288658260692</v>
       </c>
       <c r="U44" t="n">
-        <v>251.198226591664</v>
+        <v>157.6804041377187</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>234.2344360161896</v>
       </c>
       <c r="W44" t="n">
-        <v>266.870470699978</v>
+        <v>255.7231462634677</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>292.7201162021083</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25941,10 +25941,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>84.16268563243236</v>
+        <v>73.01536119592204</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>79.19067653437044</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25998,7 +25998,7 @@
         <v>196.1904550910573</v>
       </c>
       <c r="U45" t="n">
-        <v>132.3586911786547</v>
+        <v>143.506015615165</v>
       </c>
       <c r="V45" t="n">
         <v>139.28276469548</v>
@@ -26010,7 +26010,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>112.1648733233591</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>86.314157727992</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>81.00654890166513</v>
       </c>
       <c r="F46" t="n">
-        <v>51.90322556898595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.1643497321741</v>
@@ -26074,22 +26074,22 @@
         <v>209.610698095266</v>
       </c>
       <c r="T46" t="n">
-        <v>224.4136264796107</v>
+        <v>130.8958040256654</v>
       </c>
       <c r="U46" t="n">
-        <v>192.7561180138391</v>
+        <v>286.2739404677844</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>158.6198208698827</v>
       </c>
       <c r="W46" t="n">
-        <v>193.0051758826457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>153.1572396071907</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>995206.7003234725</v>
+        <v>995206.7003234727</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>365933.9943159188</v>
+        <v>365933.9943159189</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>365933.9943159189</v>
+        <v>365933.9943159188</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>370682.6297977049</v>
+        <v>370682.629797705</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>370682.6297977053</v>
+        <v>370682.6297977052</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>386778.7805653934</v>
+        <v>386778.7805653932</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>386778.7805653934</v>
+        <v>386778.7805653933</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>370682.629797705</v>
+        <v>370682.6297977051</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>365933.9943159188</v>
+        <v>365933.9943159187</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26317,13 @@
         <v>471131.8812985204</v>
       </c>
       <c r="D2" t="n">
-        <v>471135.1639043999</v>
+        <v>471135.1639044</v>
       </c>
       <c r="E2" t="n">
-        <v>173364.5447584661</v>
+        <v>173364.544758466</v>
       </c>
       <c r="F2" t="n">
-        <v>173364.5447584661</v>
+        <v>173364.544758466</v>
       </c>
       <c r="G2" t="n">
         <v>175283.3657861222</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>373240.1120862919</v>
+        <v>372681.4073629099</v>
       </c>
       <c r="C4" t="n">
-        <v>366410.0158323722</v>
+        <v>365935.2983003608</v>
       </c>
       <c r="D4" t="n">
-        <v>361904.1693226294</v>
+        <v>361484.4820672952</v>
       </c>
       <c r="E4" t="n">
-        <v>11919.04648705724</v>
+        <v>11748.41001787903</v>
       </c>
       <c r="F4" t="n">
-        <v>11919.04648705724</v>
+        <v>11748.41001787902</v>
       </c>
       <c r="G4" t="n">
-        <v>12763.82346576364</v>
+        <v>12581.08369758571</v>
       </c>
       <c r="H4" t="n">
-        <v>12763.82346576369</v>
+        <v>12581.08369758577</v>
       </c>
       <c r="I4" t="n">
-        <v>16169.66183071849</v>
+        <v>15938.06858200067</v>
       </c>
       <c r="J4" t="n">
-        <v>16169.66183071849</v>
+        <v>15938.06858200067</v>
       </c>
       <c r="K4" t="n">
-        <v>16169.66183071849</v>
+        <v>15938.06858200067</v>
       </c>
       <c r="L4" t="n">
-        <v>16169.66183071849</v>
+        <v>15938.06858200067</v>
       </c>
       <c r="M4" t="n">
-        <v>12763.82346576364</v>
+        <v>12581.08369758572</v>
       </c>
       <c r="N4" t="n">
-        <v>12763.82346576364</v>
+        <v>12581.08369758572</v>
       </c>
       <c r="O4" t="n">
-        <v>11919.04648705724</v>
+        <v>11748.41001787903</v>
       </c>
       <c r="P4" t="n">
-        <v>11919.04648705724</v>
+        <v>11748.41001787903</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-167095.9195068299</v>
+        <v>-166537.2147834479</v>
       </c>
       <c r="C6" t="n">
-        <v>41718.35976768546</v>
+        <v>42193.07729969698</v>
       </c>
       <c r="D6" t="n">
-        <v>54250.47648665264</v>
+        <v>54670.16374198698</v>
       </c>
       <c r="E6" t="n">
-        <v>-26581.34572095123</v>
+        <v>-26410.7092517731</v>
       </c>
       <c r="F6" t="n">
-        <v>145766.4139659059</v>
+        <v>145937.0504350841</v>
       </c>
       <c r="G6" t="n">
-        <v>144868.088859387</v>
+        <v>145050.8286275649</v>
       </c>
       <c r="H6" t="n">
-        <v>146482.3648047911</v>
+        <v>146665.104572969</v>
       </c>
       <c r="I6" t="n">
-        <v>143058.7490439295</v>
+        <v>143290.3422926473</v>
       </c>
       <c r="J6" t="n">
-        <v>148153.7901037413</v>
+        <v>148385.3833524592</v>
       </c>
       <c r="K6" t="n">
-        <v>148153.7901037413</v>
+        <v>148385.3833524591</v>
       </c>
       <c r="L6" t="n">
-        <v>148153.7901037413</v>
+        <v>148385.3833524592</v>
       </c>
       <c r="M6" t="n">
-        <v>127952.0930509838</v>
+        <v>128134.8328191617</v>
       </c>
       <c r="N6" t="n">
-        <v>146482.364804791</v>
+        <v>146665.1045729689</v>
       </c>
       <c r="O6" t="n">
-        <v>145766.4139659058</v>
+        <v>145937.050435084</v>
       </c>
       <c r="P6" t="n">
-        <v>145766.4139659058</v>
+        <v>145937.050435084</v>
       </c>
     </row>
   </sheetData>
@@ -26799,7 +26799,7 @@
         <v>93.51782245394539</v>
       </c>
       <c r="F4" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="G4" t="n">
         <v>99.40751340895559</v>
@@ -31841,19 +31841,19 @@
         <v>93.15541642947396</v>
       </c>
       <c r="K12" t="n">
-        <v>159.2174442543959</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>214.087502453048</v>
       </c>
       <c r="M12" t="n">
-        <v>235.6518563759637</v>
+        <v>197.0691176370429</v>
       </c>
       <c r="N12" t="n">
         <v>224.8595345372787</v>
       </c>
       <c r="O12" t="n">
-        <v>174.635837246985</v>
+        <v>234.5945812659427</v>
       </c>
       <c r="P12" t="n">
         <v>188.2828336895426</v>
@@ -32087,7 +32087,7 @@
         <v>235.6518563759637</v>
       </c>
       <c r="N15" t="n">
-        <v>224.8595345372787</v>
+        <v>224.8595345372786</v>
       </c>
       <c r="O15" t="n">
         <v>234.5945812659427</v>
@@ -32315,13 +32315,13 @@
         <v>93.15541642947396</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>159.2174442543959</v>
       </c>
       <c r="L18" t="n">
-        <v>187.0461783128341</v>
+        <v>214.087502453048</v>
       </c>
       <c r="M18" t="n">
-        <v>241.5415473309739</v>
+        <v>193.1242179107231</v>
       </c>
       <c r="N18" t="n">
         <v>230.7492254922889</v>
@@ -32555,7 +32555,7 @@
         <v>159.2174442543959</v>
       </c>
       <c r="L21" t="n">
-        <v>165.6701730327977</v>
+        <v>214.087502453048</v>
       </c>
       <c r="M21" t="n">
         <v>241.5415473309741</v>
@@ -32567,7 +32567,7 @@
         <v>234.5945812659427</v>
       </c>
       <c r="P21" t="n">
-        <v>188.2828336895426</v>
+        <v>139.8655042692922</v>
       </c>
       <c r="Q21" t="n">
         <v>125.8620881000608</v>
@@ -33740,7 +33740,7 @@
         <v>159.2174442543959</v>
       </c>
       <c r="L36" t="n">
-        <v>214.087502453048</v>
+        <v>165.6701730327971</v>
       </c>
       <c r="M36" t="n">
         <v>241.5415473309739</v>
@@ -33749,7 +33749,7 @@
         <v>230.7492254922888</v>
       </c>
       <c r="O36" t="n">
-        <v>186.1772518456918</v>
+        <v>234.5945812659427</v>
       </c>
       <c r="P36" t="n">
         <v>188.2828336895426</v>
@@ -33974,13 +33974,13 @@
         <v>93.15541642947395</v>
       </c>
       <c r="K39" t="n">
-        <v>159.2174442543959</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>214.087502453048</v>
       </c>
       <c r="M39" t="n">
-        <v>193.1242179107229</v>
+        <v>214.5002231907598</v>
       </c>
       <c r="N39" t="n">
         <v>230.7492254922888</v>
@@ -34220,10 +34220,10 @@
         <v>235.6518563759636</v>
       </c>
       <c r="N42" t="n">
-        <v>164.9007905183208</v>
+        <v>224.8595345372786</v>
       </c>
       <c r="O42" t="n">
-        <v>234.5945812659427</v>
+        <v>174.6358372469849</v>
       </c>
       <c r="P42" t="n">
         <v>188.2828336895426</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>21.37600528003691</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>75.53312267317386</v>
       </c>
       <c r="M12" t="n">
-        <v>93.51782245394539</v>
+        <v>54.93508371502456</v>
       </c>
       <c r="N12" t="n">
         <v>93.51782245394539</v>
       </c>
       <c r="O12" t="n">
-        <v>32.03959280254055</v>
+        <v>91.9983368214983</v>
       </c>
       <c r="P12" t="n">
         <v>54.30842627521235</v>
@@ -35571,19 +35571,19 @@
         <v>73.7698411188255</v>
       </c>
       <c r="L13" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>93.51782245394539</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>15.96948345819277</v>
       </c>
       <c r="O13" t="n">
         <v>93.51782245394539</v>
       </c>
       <c r="P13" t="n">
-        <v>15.96948345819286</v>
+        <v>93.51782245394539</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>93.23840601796095</v>
       </c>
       <c r="N14" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="O14" t="n">
         <v>80.39773519086012</v>
@@ -35729,13 +35729,13 @@
         <v>21.37600528003691</v>
       </c>
       <c r="L15" t="n">
-        <v>15.57437865421614</v>
+        <v>15.57437865421607</v>
       </c>
       <c r="M15" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="N15" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="O15" t="n">
         <v>91.9983368214983</v>
@@ -35808,19 +35808,19 @@
         <v>73.7698411188255</v>
       </c>
       <c r="L16" t="n">
-        <v>93.51782245394539</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="N16" t="n">
-        <v>15.9694834581928</v>
+        <v>15.96948345819274</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="P16" t="n">
-        <v>93.51782245394539</v>
+        <v>93.51782245394534</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>21.37600528003691</v>
       </c>
       <c r="L18" t="n">
-        <v>48.49179853295993</v>
+        <v>75.53312267317386</v>
       </c>
       <c r="M18" t="n">
-        <v>99.40751340895559</v>
+        <v>50.99018398870476</v>
       </c>
       <c r="N18" t="n">
         <v>99.40751340895559</v>
@@ -36048,10 +36048,10 @@
         <v>99.40751340895559</v>
       </c>
       <c r="M19" t="n">
-        <v>95.39104822071494</v>
+        <v>99.40751340895559</v>
       </c>
       <c r="N19" t="n">
-        <v>99.40751340895559</v>
+        <v>95.39104822071495</v>
       </c>
       <c r="O19" t="n">
         <v>99.40751340895559</v>
@@ -36124,7 +36124,7 @@
         <v>14.32490227781255</v>
       </c>
       <c r="L20" t="n">
-        <v>72.47692045106356</v>
+        <v>55.04581489734505</v>
       </c>
       <c r="M20" t="n">
         <v>93.2384060179609</v>
@@ -36136,7 +36136,7 @@
         <v>80.39773519086012</v>
       </c>
       <c r="P20" t="n">
-        <v>33.76811110093007</v>
+        <v>51.19921665464849</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>21.37600528003691</v>
       </c>
       <c r="L21" t="n">
-        <v>27.11579325292351</v>
+        <v>75.53312267317384</v>
       </c>
       <c r="M21" t="n">
         <v>99.40751340895584</v>
@@ -36215,7 +36215,7 @@
         <v>91.99833682149827</v>
       </c>
       <c r="P21" t="n">
-        <v>54.30842627521233</v>
+        <v>5.89109685496201</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>99.40751340895584</v>
+        <v>95.39104822071519</v>
       </c>
       <c r="M22" t="n">
         <v>99.40751340895584</v>
@@ -36291,7 +36291,7 @@
         <v>99.40751340895584</v>
       </c>
       <c r="O22" t="n">
-        <v>95.39104822071521</v>
+        <v>99.40751340895584</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>8.497502842545479</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>14.32490227781255</v>
@@ -36364,16 +36364,16 @@
         <v>55.04581489734505</v>
       </c>
       <c r="M23" t="n">
-        <v>93.2384060179609</v>
+        <v>118.567493477517</v>
       </c>
       <c r="N23" t="n">
         <v>99.40751340895554</v>
       </c>
       <c r="O23" t="n">
-        <v>80.39773519086012</v>
+        <v>118.567493477517</v>
       </c>
       <c r="P23" t="n">
-        <v>118.567493477517</v>
+        <v>63.5661505738495</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36516,16 +36516,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>73.76984111882548</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>61.31888488250657</v>
+        <v>16.52123252381502</v>
       </c>
       <c r="M25" t="n">
         <v>118.567493477517</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>118.567493477517</v>
       </c>
       <c r="O25" t="n">
         <v>118.567493477517</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>93.29688521913241</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>14.32490227781255</v>
@@ -36607,10 +36607,10 @@
         <v>99.40751340895554</v>
       </c>
       <c r="O26" t="n">
-        <v>80.39773519086012</v>
+        <v>88.89523803340565</v>
       </c>
       <c r="P26" t="n">
-        <v>33.76811110093007</v>
+        <v>118.567493477517</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>73.76984111882548</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>118.567493477517</v>
@@ -36762,10 +36762,10 @@
         <v>118.567493477517</v>
       </c>
       <c r="N28" t="n">
-        <v>61.3188848825066</v>
+        <v>118.567493477517</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>16.52123252381507</v>
       </c>
       <c r="P28" t="n">
         <v>97.25565515663054</v>
@@ -36832,7 +36832,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>14.32490227781255</v>
+        <v>107.621787496945</v>
       </c>
       <c r="L29" t="n">
         <v>55.04581489734505</v>
@@ -36844,10 +36844,10 @@
         <v>99.40751340895554</v>
       </c>
       <c r="O29" t="n">
-        <v>118.567493477517</v>
+        <v>80.39773519086012</v>
       </c>
       <c r="P29" t="n">
-        <v>88.89523803340565</v>
+        <v>33.76811110093007</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>73.76984111882548</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>118.567493477517</v>
@@ -36999,10 +36999,10 @@
         <v>118.567493477517</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>16.52123252381501</v>
       </c>
       <c r="O31" t="n">
-        <v>61.3188848825066</v>
+        <v>118.567493477517</v>
       </c>
       <c r="P31" t="n">
         <v>97.25565515663054</v>
@@ -37072,19 +37072,19 @@
         <v>14.32490227781255</v>
       </c>
       <c r="L32" t="n">
-        <v>110.1729418298206</v>
+        <v>55.04581489734505</v>
       </c>
       <c r="M32" t="n">
         <v>93.2384060179609</v>
       </c>
       <c r="N32" t="n">
-        <v>99.40751340895554</v>
+        <v>118.567493477517</v>
       </c>
       <c r="O32" t="n">
-        <v>118.567493477517</v>
+        <v>80.39773519086012</v>
       </c>
       <c r="P32" t="n">
-        <v>33.76811110093007</v>
+        <v>107.905016251501</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>73.76984111882548</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>118.567493477517</v>
+        <v>16.52123252381502</v>
       </c>
       <c r="M34" t="n">
         <v>118.567493477517</v>
@@ -37239,10 +37239,10 @@
         <v>118.567493477517</v>
       </c>
       <c r="O34" t="n">
-        <v>40.00704656162011</v>
+        <v>118.567493477517</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>97.25565515663054</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>17.43110555371727</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>14.32490227781255</v>
+        <v>31.75600783152982</v>
       </c>
       <c r="L35" t="n">
         <v>55.04581489734505</v>
@@ -37388,7 +37388,7 @@
         <v>21.37600528003691</v>
       </c>
       <c r="L36" t="n">
-        <v>75.53312267317384</v>
+        <v>27.11579325292291</v>
       </c>
       <c r="M36" t="n">
         <v>99.40751340895554</v>
@@ -37397,7 +37397,7 @@
         <v>99.40751340895554</v>
       </c>
       <c r="O36" t="n">
-        <v>43.58100740124735</v>
+        <v>91.99833682149827</v>
       </c>
       <c r="P36" t="n">
         <v>54.30842627521233</v>
@@ -37467,19 +37467,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="M37" t="n">
-        <v>97.54290647303988</v>
+        <v>99.40751340895554</v>
       </c>
       <c r="N37" t="n">
-        <v>99.40751340895554</v>
+        <v>95.39104822071489</v>
       </c>
       <c r="O37" t="n">
         <v>99.40751340895554</v>
       </c>
       <c r="P37" t="n">
-        <v>97.25565515663054</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>31.75600783152982</v>
+        <v>14.32490227781255</v>
       </c>
       <c r="L38" t="n">
         <v>55.04581489734505</v>
@@ -37558,7 +37558,7 @@
         <v>80.39773519086012</v>
       </c>
       <c r="P38" t="n">
-        <v>33.76811110093007</v>
+        <v>51.1992166546474</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>21.37600528003691</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>75.53312267317384</v>
       </c>
       <c r="M39" t="n">
-        <v>50.99018398870462</v>
+        <v>72.36618926874152</v>
       </c>
       <c r="N39" t="n">
         <v>99.40751340895554</v>
@@ -37868,10 +37868,10 @@
         <v>93.5178224539453</v>
       </c>
       <c r="N42" t="n">
-        <v>33.55907843498747</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="O42" t="n">
-        <v>91.99833682149827</v>
+        <v>32.03959280254044</v>
       </c>
       <c r="P42" t="n">
         <v>54.30842627521233</v>
@@ -37938,13 +37938,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>73.76984111882548</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>93.5178224539453</v>
       </c>
       <c r="M43" t="n">
-        <v>89.73932457701824</v>
+        <v>15.96948345819274</v>
       </c>
       <c r="N43" t="n">
         <v>93.5178224539453</v>
@@ -37953,7 +37953,7 @@
         <v>93.5178224539453</v>
       </c>
       <c r="P43" t="n">
-        <v>93.5178224539453</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38181,10 +38181,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>93.5178224539453</v>
+      </c>
+      <c r="N46" t="n">
         <v>89.73932457701824</v>
-      </c>
-      <c r="N46" t="n">
-        <v>93.5178224539453</v>
       </c>
       <c r="O46" t="n">
         <v>93.5178224539453</v>
